--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.1006863667102</v>
+        <v>184.6733718390124</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.7966722435682</v>
+        <v>252.6782545641852</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.1101126470529</v>
+        <v>228.5629965848105</v>
       </c>
       <c r="AD2" t="n">
-        <v>143100.6863667102</v>
+        <v>184673.3718390124</v>
       </c>
       <c r="AE2" t="n">
-        <v>195796.6722435682</v>
+        <v>252678.2545641852</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.467454194563629e-06</v>
+        <v>4.171353741613294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.211805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>177110.1126470529</v>
+        <v>228562.9965848105</v>
       </c>
     </row>
     <row r="3">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.2779084565218</v>
+        <v>167.9358452748445</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.7790053382781</v>
+        <v>229.7772323115445</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.289219565698</v>
+        <v>207.8476157541679</v>
       </c>
       <c r="AD3" t="n">
-        <v>126277.9084565218</v>
+        <v>167935.8452748445</v>
       </c>
       <c r="AE3" t="n">
-        <v>172779.0053382781</v>
+        <v>229777.2323115444</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.6695449742983e-06</v>
+        <v>4.512998231731521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.586805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>156289.219565698</v>
+        <v>207847.6157541679</v>
       </c>
     </row>
     <row r="4">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.9647459702369</v>
+        <v>153.20828809253</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.8775461412467</v>
+        <v>209.6263388407448</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.9509873516794</v>
+        <v>189.6198952742584</v>
       </c>
       <c r="AD4" t="n">
-        <v>121964.7459702369</v>
+        <v>153208.28809253</v>
       </c>
       <c r="AE4" t="n">
-        <v>166877.5461412467</v>
+        <v>209626.3388407448</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.828407280474574e-06</v>
+        <v>4.78156284246664e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>150950.9873516794</v>
+        <v>189619.8952742584</v>
       </c>
     </row>
     <row r="5">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.7848356729406</v>
+        <v>150.3574316366917</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.8442114158898</v>
+        <v>205.7256712669585</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.6387287825605</v>
+        <v>186.0915019390916</v>
       </c>
       <c r="AD5" t="n">
-        <v>108784.8356729406</v>
+        <v>150357.4316366917</v>
       </c>
       <c r="AE5" t="n">
-        <v>148844.2114158898</v>
+        <v>205725.6712669585</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.935007949341315e-06</v>
+        <v>4.961776562306087e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>134638.7287825605</v>
+        <v>186091.5019390916</v>
       </c>
     </row>
     <row r="6">
@@ -7736,28 +7736,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>106.2345521037018</v>
+        <v>147.8071480674529</v>
       </c>
       <c r="AB6" t="n">
-        <v>145.3548009258886</v>
+        <v>202.2362607769573</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.4823427323055</v>
+        <v>182.9351158888366</v>
       </c>
       <c r="AD6" t="n">
-        <v>106234.5521037018</v>
+        <v>147807.1480674529</v>
       </c>
       <c r="AE6" t="n">
-        <v>145354.8009258886</v>
+        <v>202236.2607769573</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.035866607141444e-06</v>
+        <v>5.132283127540651e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>131482.3427323056</v>
+        <v>182935.1158888366</v>
       </c>
     </row>
     <row r="7">
@@ -7842,28 +7842,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>106.0560821189359</v>
+        <v>147.6286780826871</v>
       </c>
       <c r="AB7" t="n">
-        <v>145.110610419192</v>
+        <v>201.9920702702607</v>
       </c>
       <c r="AC7" t="n">
-        <v>131.2614574248445</v>
+        <v>182.7142305813756</v>
       </c>
       <c r="AD7" t="n">
-        <v>106056.0821189359</v>
+        <v>147628.6780826871</v>
       </c>
       <c r="AE7" t="n">
-        <v>145110.610419192</v>
+        <v>201992.0702702607</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.046743750056246e-06</v>
+        <v>5.150671477320635e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>131261.4574248445</v>
+        <v>182714.2305813756</v>
       </c>
     </row>
     <row r="8">
@@ -7948,28 +7948,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>104.1198341067029</v>
+        <v>135.4486275750165</v>
       </c>
       <c r="AB8" t="n">
-        <v>142.4613504676224</v>
+        <v>185.3267878197698</v>
       </c>
       <c r="AC8" t="n">
-        <v>128.8650391247922</v>
+        <v>167.6394592980834</v>
       </c>
       <c r="AD8" t="n">
-        <v>104119.8341067029</v>
+        <v>135448.6275750165</v>
       </c>
       <c r="AE8" t="n">
-        <v>142461.3504676224</v>
+        <v>185326.7878197698</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.113593830116318e-06</v>
+        <v>5.263684854509202e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>128865.0391247922</v>
+        <v>167639.4592980834</v>
       </c>
     </row>
     <row r="9">
@@ -8054,28 +8054,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>102.6428358845653</v>
+        <v>133.8010371522868</v>
       </c>
       <c r="AB9" t="n">
-        <v>140.4404563395321</v>
+        <v>183.0724819168326</v>
       </c>
       <c r="AC9" t="n">
-        <v>127.0370162959434</v>
+        <v>165.6003011865836</v>
       </c>
       <c r="AD9" t="n">
-        <v>102642.8358845653</v>
+        <v>133801.0371522868</v>
       </c>
       <c r="AE9" t="n">
-        <v>140440.4563395321</v>
+        <v>183072.4819168326</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.16639232211907e-06</v>
+        <v>5.352943324900449e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.397569444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>127037.0162959434</v>
+        <v>165600.3011865836</v>
       </c>
     </row>
     <row r="10">
@@ -8160,28 +8160,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>101.1852883140646</v>
+        <v>132.343489581786</v>
       </c>
       <c r="AB10" t="n">
-        <v>138.4461754511134</v>
+        <v>181.0782010284139</v>
       </c>
       <c r="AC10" t="n">
-        <v>125.233066776524</v>
+        <v>163.7963516671642</v>
       </c>
       <c r="AD10" t="n">
-        <v>101185.2883140646</v>
+        <v>132343.489581786</v>
       </c>
       <c r="AE10" t="n">
-        <v>138446.1754511134</v>
+        <v>181078.2010284139</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.22371906675159e-06</v>
+        <v>5.449857031037013e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.284722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>125233.066776524</v>
+        <v>163796.3516671642</v>
       </c>
     </row>
     <row r="11">
@@ -8266,28 +8266,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>100.5377626033584</v>
+        <v>131.6959638710799</v>
       </c>
       <c r="AB11" t="n">
-        <v>137.5602022069075</v>
+        <v>180.192227784208</v>
       </c>
       <c r="AC11" t="n">
-        <v>124.4316495752735</v>
+        <v>162.9949344659137</v>
       </c>
       <c r="AD11" t="n">
-        <v>100537.7626033584</v>
+        <v>131695.9638710799</v>
       </c>
       <c r="AE11" t="n">
-        <v>137560.2022069075</v>
+        <v>180192.227784208</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.243255909283112e-06</v>
+        <v>5.482885032680459e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH11" t="n">
-        <v>124431.6495752735</v>
+        <v>162994.9344659137</v>
       </c>
     </row>
     <row r="12">
@@ -8372,28 +8372,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>100.5073318872877</v>
+        <v>131.6655331550092</v>
       </c>
       <c r="AB12" t="n">
-        <v>137.5185655586711</v>
+        <v>180.1505911359716</v>
       </c>
       <c r="AC12" t="n">
-        <v>124.3939866703074</v>
+        <v>162.9572715609476</v>
       </c>
       <c r="AD12" t="n">
-        <v>100507.3318872877</v>
+        <v>131665.5331550092</v>
       </c>
       <c r="AE12" t="n">
-        <v>137518.5655586711</v>
+        <v>180150.5911359716</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.244633058278763e-06</v>
+        <v>5.48521317138651e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.241319444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>124393.9866703074</v>
+        <v>162957.2715609476</v>
       </c>
     </row>
   </sheetData>
@@ -8669,28 +8669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.2206849703844</v>
+        <v>278.6341540783418</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.3697036921931</v>
+        <v>381.2395420813071</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.6572267083345</v>
+        <v>344.8545752581243</v>
       </c>
       <c r="AD2" t="n">
-        <v>212220.6849703844</v>
+        <v>278634.1540783418</v>
       </c>
       <c r="AE2" t="n">
-        <v>290369.7036921931</v>
+        <v>381239.5420813071</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.755523665694629e-06</v>
+        <v>2.841466073678522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.79861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>262657.2267083345</v>
+        <v>344854.5752581243</v>
       </c>
     </row>
     <row r="3">
@@ -8775,28 +8775,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.3386132482351</v>
+        <v>240.7542882170064</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.588467208663</v>
+        <v>329.4106384679345</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.3863398119911</v>
+        <v>297.9721494633876</v>
       </c>
       <c r="AD3" t="n">
-        <v>185338.6132482351</v>
+        <v>240754.2882170064</v>
       </c>
       <c r="AE3" t="n">
-        <v>253588.4672086631</v>
+        <v>329410.6384679344</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.975067857608993e-06</v>
+        <v>3.196817234809692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.600694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>229386.3398119911</v>
+        <v>297972.1494633876</v>
       </c>
     </row>
     <row r="4">
@@ -8881,28 +8881,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.1953548598187</v>
+        <v>220.5256889740183</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.0275724238037</v>
+        <v>301.7329765608775</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.4558181434312</v>
+        <v>272.9360047628888</v>
       </c>
       <c r="AD4" t="n">
-        <v>165195.3548598187</v>
+        <v>220525.6889740183</v>
       </c>
       <c r="AE4" t="n">
-        <v>226027.5724238037</v>
+        <v>301732.9765608775</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.138311947389146e-06</v>
+        <v>3.461041837361714e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.862847222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>204455.8181434312</v>
+        <v>272936.0047628888</v>
       </c>
     </row>
     <row r="5">
@@ -8987,28 +8987,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.8975401919549</v>
+        <v>204.1448288209514</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.7788686721484</v>
+        <v>279.3199610269163</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.8989205042119</v>
+        <v>252.6620559746168</v>
       </c>
       <c r="AD5" t="n">
-        <v>159897.5401919549</v>
+        <v>204144.8288209514</v>
       </c>
       <c r="AE5" t="n">
-        <v>218778.8686721484</v>
+        <v>279319.9610269163</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.254187952790281e-06</v>
+        <v>3.648597120457505e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.411458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>197898.9205042119</v>
+        <v>252662.0559746168</v>
       </c>
     </row>
     <row r="6">
@@ -9093,28 +9093,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>155.8015847881366</v>
+        <v>200.0488734171331</v>
       </c>
       <c r="AB6" t="n">
-        <v>213.1746017878478</v>
+        <v>273.7156941426156</v>
       </c>
       <c r="AC6" t="n">
-        <v>192.8295169857093</v>
+        <v>247.5926524561142</v>
       </c>
       <c r="AD6" t="n">
-        <v>155801.5847881366</v>
+        <v>200048.8734171331</v>
       </c>
       <c r="AE6" t="n">
-        <v>213174.6017878478</v>
+        <v>273715.6941426157</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.349863184539693e-06</v>
+        <v>3.803455713605387e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.064236111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>192829.5169857093</v>
+        <v>247592.6524561142</v>
       </c>
     </row>
     <row r="7">
@@ -9199,28 +9199,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>141.4854765583141</v>
+        <v>185.8180165333311</v>
       </c>
       <c r="AB7" t="n">
-        <v>193.5866709256941</v>
+        <v>254.2444079331113</v>
       </c>
       <c r="AC7" t="n">
-        <v>175.1110307531997</v>
+        <v>229.9796784743168</v>
       </c>
       <c r="AD7" t="n">
-        <v>141485.4765583141</v>
+        <v>185818.0165333311</v>
       </c>
       <c r="AE7" t="n">
-        <v>193586.6709256941</v>
+        <v>254244.4079331113</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.430644440472373e-06</v>
+        <v>3.934207125624107e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.795138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>175111.0307531997</v>
+        <v>229979.6784743168</v>
       </c>
     </row>
     <row r="8">
@@ -9305,28 +9305,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>139.1813338299665</v>
+        <v>183.5138738049835</v>
       </c>
       <c r="AB8" t="n">
-        <v>190.4340411931676</v>
+        <v>251.0917782005847</v>
       </c>
       <c r="AC8" t="n">
-        <v>172.2592835776009</v>
+        <v>227.127931298718</v>
       </c>
       <c r="AD8" t="n">
-        <v>139181.3338299665</v>
+        <v>183513.8738049835</v>
       </c>
       <c r="AE8" t="n">
-        <v>190434.0411931676</v>
+        <v>251091.7782005847</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.494020273053243e-06</v>
+        <v>4.03678636262825e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>172259.2835776008</v>
+        <v>227127.931298718</v>
       </c>
     </row>
     <row r="9">
@@ -9411,28 +9411,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>136.4853889039383</v>
+        <v>180.6473366783631</v>
       </c>
       <c r="AB9" t="n">
-        <v>186.7453304086816</v>
+        <v>247.1696556412519</v>
       </c>
       <c r="AC9" t="n">
-        <v>168.922618173247</v>
+        <v>223.5801306117131</v>
       </c>
       <c r="AD9" t="n">
-        <v>136485.3889039383</v>
+        <v>180647.3366783631</v>
       </c>
       <c r="AE9" t="n">
-        <v>186745.3304086816</v>
+        <v>247169.6556412519</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.567834991910355e-06</v>
+        <v>4.156261835086557e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.378472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>168922.618173247</v>
+        <v>223580.1306117131</v>
       </c>
     </row>
     <row r="10">
@@ -9517,28 +9517,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.5245673447492</v>
+        <v>167.774061834563</v>
       </c>
       <c r="AB10" t="n">
-        <v>184.0624478460584</v>
+        <v>229.5558730711697</v>
       </c>
       <c r="AC10" t="n">
-        <v>166.4957861569503</v>
+        <v>207.6473827290148</v>
       </c>
       <c r="AD10" t="n">
-        <v>134524.5673447492</v>
+        <v>167774.0618345629</v>
       </c>
       <c r="AE10" t="n">
-        <v>184062.4478460584</v>
+        <v>229555.8730711697</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.621252389047781e-06</v>
+        <v>4.242722487640704e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>166495.7861569503</v>
+        <v>207647.3827290148</v>
       </c>
     </row>
     <row r="11">
@@ -9623,28 +9623,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>134.5796792724904</v>
+        <v>167.8291737623042</v>
       </c>
       <c r="AB11" t="n">
-        <v>184.1378544169606</v>
+        <v>229.6312796420719</v>
       </c>
       <c r="AC11" t="n">
-        <v>166.5639960305594</v>
+        <v>207.7155926026238</v>
       </c>
       <c r="AD11" t="n">
-        <v>134579.6792724904</v>
+        <v>167829.1737623042</v>
       </c>
       <c r="AE11" t="n">
-        <v>184137.8544169606</v>
+        <v>229631.2796420719</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.625969542678886e-06</v>
+        <v>4.250357606590702e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>166563.9960305594</v>
+        <v>207715.5926026238</v>
       </c>
     </row>
     <row r="12">
@@ -9729,28 +9729,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>133.7999939209941</v>
+        <v>167.0494884108079</v>
       </c>
       <c r="AB12" t="n">
-        <v>183.0710545217538</v>
+        <v>228.5644797468651</v>
       </c>
       <c r="AC12" t="n">
-        <v>165.5990100200878</v>
+        <v>206.7506065921522</v>
       </c>
       <c r="AD12" t="n">
-        <v>133799.9939209941</v>
+        <v>167049.4884108079</v>
       </c>
       <c r="AE12" t="n">
-        <v>183071.0545217538</v>
+        <v>228564.4797468651</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.647917410268057e-06</v>
+        <v>4.285882118371945e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>165599.0100200878</v>
+        <v>206750.6065921522</v>
       </c>
     </row>
     <row r="13">
@@ -9835,28 +9835,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>132.6230505978376</v>
+        <v>165.8725450876515</v>
       </c>
       <c r="AB13" t="n">
-        <v>181.4607087439371</v>
+        <v>226.9541339690485</v>
       </c>
       <c r="AC13" t="n">
-        <v>164.1423533831709</v>
+        <v>205.2939499552353</v>
       </c>
       <c r="AD13" t="n">
-        <v>132623.0505978377</v>
+        <v>165872.5450876515</v>
       </c>
       <c r="AE13" t="n">
-        <v>181460.7087439371</v>
+        <v>226954.1339690484</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.676220332054689e-06</v>
+        <v>4.331692832071933e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>164142.3533831709</v>
+        <v>205293.9499552354</v>
       </c>
     </row>
     <row r="14">
@@ -9941,28 +9941,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>119.8201539544441</v>
+        <v>164.0673530748894</v>
       </c>
       <c r="AB14" t="n">
-        <v>163.9432207325181</v>
+        <v>224.4841906177377</v>
       </c>
       <c r="AC14" t="n">
-        <v>148.2967098416074</v>
+        <v>203.0597345307856</v>
       </c>
       <c r="AD14" t="n">
-        <v>119820.1539544441</v>
+        <v>164067.3530748894</v>
       </c>
       <c r="AE14" t="n">
-        <v>163943.2207325182</v>
+        <v>224484.1906177377</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.729069923662444e-06</v>
+        <v>4.417234442530247e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>148296.7098416074</v>
+        <v>203059.7345307856</v>
       </c>
     </row>
     <row r="15">
@@ -10047,28 +10047,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>119.547283102662</v>
+        <v>163.7944822231074</v>
       </c>
       <c r="AB15" t="n">
-        <v>163.5698667948978</v>
+        <v>224.1108366801173</v>
       </c>
       <c r="AC15" t="n">
-        <v>147.9589882797878</v>
+        <v>202.7220129689661</v>
       </c>
       <c r="AD15" t="n">
-        <v>119547.283102662</v>
+        <v>163794.4822231074</v>
       </c>
       <c r="AE15" t="n">
-        <v>163569.8667948978</v>
+        <v>224110.8366801173</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.729266471730407e-06</v>
+        <v>4.417552572486498e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH15" t="n">
-        <v>147958.9882797878</v>
+        <v>202722.0129689661</v>
       </c>
     </row>
     <row r="16">
@@ -10153,28 +10153,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>118.7071478402072</v>
+        <v>162.9543469606525</v>
       </c>
       <c r="AB16" t="n">
-        <v>162.4203566646557</v>
+        <v>222.9613265498753</v>
       </c>
       <c r="AC16" t="n">
-        <v>146.9191857830281</v>
+        <v>201.6822104722064</v>
       </c>
       <c r="AD16" t="n">
-        <v>118707.1478402072</v>
+        <v>162954.3469606525</v>
       </c>
       <c r="AE16" t="n">
-        <v>162420.3566646557</v>
+        <v>222961.3265498753</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.754228076361673e-06</v>
+        <v>4.457955076930238e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.883680555555555</v>
       </c>
       <c r="AH16" t="n">
-        <v>146919.1857830281</v>
+        <v>201682.2104722064</v>
       </c>
     </row>
     <row r="17">
@@ -10259,28 +10259,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>117.5809491051148</v>
+        <v>161.8281482255602</v>
       </c>
       <c r="AB17" t="n">
-        <v>160.8794418709215</v>
+        <v>221.420411756141</v>
       </c>
       <c r="AC17" t="n">
-        <v>145.5253337345198</v>
+        <v>200.2883584236981</v>
       </c>
       <c r="AD17" t="n">
-        <v>117580.9491051148</v>
+        <v>161828.1482255602</v>
       </c>
       <c r="AE17" t="n">
-        <v>160879.4418709215</v>
+        <v>221420.411756141</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.78475854291855e-06</v>
+        <v>4.507371263467726e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.805555555555555</v>
       </c>
       <c r="AH17" t="n">
-        <v>145525.3337345198</v>
+        <v>200288.3584236981</v>
       </c>
     </row>
     <row r="18">
@@ -10365,28 +10365,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>116.3985416078545</v>
+        <v>160.6457407282998</v>
       </c>
       <c r="AB18" t="n">
-        <v>159.2616197690334</v>
+        <v>219.802589654253</v>
       </c>
       <c r="AC18" t="n">
-        <v>144.0619143034079</v>
+        <v>198.8249389925862</v>
       </c>
       <c r="AD18" t="n">
-        <v>116398.5416078545</v>
+        <v>160645.7407282998</v>
       </c>
       <c r="AE18" t="n">
-        <v>159261.6197690335</v>
+        <v>219802.589654253</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.818193553146431e-06</v>
+        <v>4.561488703803131e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.727430555555555</v>
       </c>
       <c r="AH18" t="n">
-        <v>144061.9143034079</v>
+        <v>198824.9389925862</v>
       </c>
     </row>
     <row r="19">
@@ -10471,28 +10471,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>116.360510492354</v>
+        <v>160.6077096127993</v>
       </c>
       <c r="AB19" t="n">
-        <v>159.2095839189913</v>
+        <v>219.7505538042108</v>
       </c>
       <c r="AC19" t="n">
-        <v>144.014844681861</v>
+        <v>198.7778693710393</v>
       </c>
       <c r="AD19" t="n">
-        <v>116360.5104923539</v>
+        <v>160607.7096127993</v>
       </c>
       <c r="AE19" t="n">
-        <v>159209.5839189913</v>
+        <v>219750.5538042108</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.808737407210003e-06</v>
+        <v>4.546183118130218e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.753472222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>144014.844681861</v>
+        <v>198777.8693710393</v>
       </c>
     </row>
     <row r="20">
@@ -10577,28 +10577,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>115.2787660862424</v>
+        <v>159.5259652066877</v>
       </c>
       <c r="AB20" t="n">
-        <v>157.7294934993551</v>
+        <v>218.2704633845746</v>
       </c>
       <c r="AC20" t="n">
-        <v>142.6760120145545</v>
+        <v>197.4390367037327</v>
       </c>
       <c r="AD20" t="n">
-        <v>115278.7660862424</v>
+        <v>159525.9652066877</v>
       </c>
       <c r="AE20" t="n">
-        <v>157729.4934993551</v>
+        <v>218270.4633845746</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.836712748883364e-06</v>
+        <v>4.591463615236458e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.684027777777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>142676.0120145545</v>
+        <v>197439.0367037327</v>
       </c>
     </row>
     <row r="21">
@@ -10683,28 +10683,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>115.1492527824231</v>
+        <v>159.3964519028684</v>
       </c>
       <c r="AB21" t="n">
-        <v>157.552287683346</v>
+        <v>218.0932575685655</v>
       </c>
       <c r="AC21" t="n">
-        <v>142.5157184729153</v>
+        <v>197.2787431620935</v>
       </c>
       <c r="AD21" t="n">
-        <v>115149.2527824231</v>
+        <v>159396.4519028685</v>
       </c>
       <c r="AE21" t="n">
-        <v>157552.287683346</v>
+        <v>218093.2575685655</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.837018490322417e-06</v>
+        <v>4.591958484057291e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.684027777777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>142515.7184729153</v>
+        <v>197278.7431620935</v>
       </c>
     </row>
     <row r="22">
@@ -10789,28 +10789,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>114.0252610826005</v>
+        <v>158.2724602030459</v>
       </c>
       <c r="AB22" t="n">
-        <v>156.0143926526353</v>
+        <v>216.5553625378548</v>
       </c>
       <c r="AC22" t="n">
-        <v>141.1245979854859</v>
+        <v>195.8876226746642</v>
       </c>
       <c r="AD22" t="n">
-        <v>114025.2610826005</v>
+        <v>158272.4602030459</v>
       </c>
       <c r="AE22" t="n">
-        <v>156014.3926526353</v>
+        <v>216555.3625378548</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.864513381162981e-06</v>
+        <v>4.636461330159365e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>141124.5979854859</v>
+        <v>195887.6226746642</v>
       </c>
     </row>
     <row r="23">
@@ -10895,28 +10895,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>114.0222047882853</v>
+        <v>158.2694039087307</v>
       </c>
       <c r="AB23" t="n">
-        <v>156.0102108959191</v>
+        <v>216.5511807811386</v>
       </c>
       <c r="AC23" t="n">
-        <v>141.1208153297616</v>
+        <v>195.8838400189399</v>
       </c>
       <c r="AD23" t="n">
-        <v>114022.2047882853</v>
+        <v>158269.4039087307</v>
       </c>
       <c r="AE23" t="n">
-        <v>156010.2108959191</v>
+        <v>216551.1807811387</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.862307675066955e-06</v>
+        <v>4.632891205094782e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.623263888888889</v>
       </c>
       <c r="AH23" t="n">
-        <v>141120.8153297616</v>
+        <v>195883.8400189399</v>
       </c>
     </row>
     <row r="24">
@@ -11001,28 +11001,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>113.9202664292153</v>
+        <v>158.1674655496606</v>
       </c>
       <c r="AB24" t="n">
-        <v>155.8707343358365</v>
+        <v>216.4117042210561</v>
       </c>
       <c r="AC24" t="n">
-        <v>140.9946502168166</v>
+        <v>195.7576749059949</v>
       </c>
       <c r="AD24" t="n">
-        <v>113920.2664292153</v>
+        <v>158167.4655496606</v>
       </c>
       <c r="AE24" t="n">
-        <v>155870.7343358365</v>
+        <v>216411.7042210561</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.861805385559938e-06</v>
+        <v>4.632078206317698e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.623263888888889</v>
       </c>
       <c r="AH24" t="n">
-        <v>140994.6502168166</v>
+        <v>195757.6749059949</v>
       </c>
     </row>
     <row r="25">
@@ -11107,28 +11107,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>113.96157028989</v>
+        <v>158.2087694103354</v>
       </c>
       <c r="AB25" t="n">
-        <v>155.9272481002094</v>
+        <v>216.4682179854289</v>
       </c>
       <c r="AC25" t="n">
-        <v>141.0457703868353</v>
+        <v>195.8087950760136</v>
       </c>
       <c r="AD25" t="n">
-        <v>113961.57028989</v>
+        <v>158208.7694103354</v>
       </c>
       <c r="AE25" t="n">
-        <v>155927.2481002094</v>
+        <v>216468.2179854289</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.861477805446667e-06</v>
+        <v>4.631547989723949e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6.623263888888889</v>
       </c>
       <c r="AH25" t="n">
-        <v>141045.7703868353</v>
+        <v>195808.7950760136</v>
       </c>
     </row>
   </sheetData>
@@ -11404,28 +11404,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.74218255556974</v>
+        <v>114.2938964225583</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.8432603830665</v>
+        <v>156.3819513761202</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.1690965851371</v>
+        <v>141.4570774202734</v>
       </c>
       <c r="AD2" t="n">
-        <v>81742.18255556974</v>
+        <v>114293.8964225583</v>
       </c>
       <c r="AE2" t="n">
-        <v>111843.2603830664</v>
+        <v>156381.9513761202</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.436183398314658e-06</v>
+        <v>7.365323695885263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.699652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>101169.0965851371</v>
+        <v>141457.0774202734</v>
       </c>
     </row>
   </sheetData>
@@ -11701,28 +11701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.93496941553482</v>
+        <v>113.9844499947521</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.5800163375693</v>
+        <v>155.958553121783</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.3583446029316</v>
+        <v>141.0740877010868</v>
       </c>
       <c r="AD2" t="n">
-        <v>85934.96941553483</v>
+        <v>113984.4499947521</v>
       </c>
       <c r="AE2" t="n">
-        <v>117580.0163375693</v>
+        <v>155958.553121783</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.734939503962464e-06</v>
+        <v>6.881374058745739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>106358.3446029316</v>
+        <v>141074.0877010868</v>
       </c>
     </row>
     <row r="3">
@@ -11807,28 +11807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.71772899121166</v>
+        <v>113.7672095704289</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.2827784050394</v>
+        <v>155.661315189253</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.0894746415062</v>
+        <v>140.8052177396614</v>
       </c>
       <c r="AD3" t="n">
-        <v>85717.72899121165</v>
+        <v>113767.2095704289</v>
       </c>
       <c r="AE3" t="n">
-        <v>117282.7784050394</v>
+        <v>155661.315189253</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.744162673540903e-06</v>
+        <v>6.898367126453837e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.059027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>106089.4746415062</v>
+        <v>140805.2177396614</v>
       </c>
     </row>
   </sheetData>
@@ -12104,28 +12104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.8292411919458</v>
+        <v>188.7010979940568</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.8982454476827</v>
+        <v>258.1891671802514</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.7247988646712</v>
+        <v>233.5479554354156</v>
       </c>
       <c r="AD2" t="n">
-        <v>146829.2411919459</v>
+        <v>188701.0979940568</v>
       </c>
       <c r="AE2" t="n">
-        <v>200898.2454476827</v>
+        <v>258189.1671802514</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.38652882758545e-06</v>
+        <v>4.013375438160122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.428819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>181724.7988646712</v>
+        <v>233547.9554354156</v>
       </c>
     </row>
     <row r="3">
@@ -12210,28 +12210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.949213185829</v>
+        <v>170.9063213339606</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.4340023185618</v>
+        <v>233.8415687037798</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.595388764005</v>
+        <v>211.5240575854616</v>
       </c>
       <c r="AD3" t="n">
-        <v>128949.213185829</v>
+        <v>170906.3213339606</v>
       </c>
       <c r="AE3" t="n">
-        <v>176434.0023185618</v>
+        <v>233841.5687037797</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.602687915811589e-06</v>
+        <v>4.376885639836416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.725694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>159595.388764005</v>
+        <v>211524.0575854616</v>
       </c>
     </row>
     <row r="4">
@@ -12316,28 +12316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.6410224376965</v>
+        <v>166.4275383852358</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.5393456730079</v>
+        <v>227.7135002833791</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.2633098754984</v>
+        <v>205.980843414304</v>
       </c>
       <c r="AD4" t="n">
-        <v>124641.0224376965</v>
+        <v>166427.5383852358</v>
       </c>
       <c r="AE4" t="n">
-        <v>170539.3456730079</v>
+        <v>227713.5002833791</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.754615418991535e-06</v>
+        <v>4.632378933106327e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.300347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>154263.3098754984</v>
+        <v>205980.843414304</v>
       </c>
     </row>
     <row r="5">
@@ -12422,28 +12422,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.9439352686691</v>
+        <v>153.4118558883188</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.8490720212584</v>
+        <v>209.9048692797203</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.925230761739</v>
+        <v>189.871843159058</v>
       </c>
       <c r="AD5" t="n">
-        <v>121943.9352686691</v>
+        <v>153411.8558883188</v>
       </c>
       <c r="AE5" t="n">
-        <v>166849.0720212584</v>
+        <v>209904.8692797203</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.857691709455135e-06</v>
+        <v>4.805720167296159e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.039930555555554</v>
       </c>
       <c r="AH5" t="n">
-        <v>150925.230761739</v>
+        <v>189871.843159058</v>
       </c>
     </row>
     <row r="6">
@@ -12528,28 +12528,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.8877318413643</v>
+        <v>150.7594991349242</v>
       </c>
       <c r="AB6" t="n">
-        <v>148.9849984929856</v>
+        <v>206.275797756006</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.7660793386142</v>
+        <v>186.589125128132</v>
       </c>
       <c r="AD6" t="n">
-        <v>108887.7318413643</v>
+        <v>150759.4991349242</v>
       </c>
       <c r="AE6" t="n">
-        <v>148984.9984929856</v>
+        <v>206275.797756006</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.952290264568247e-06</v>
+        <v>4.964804571887454e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.814236111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>134766.0793386142</v>
+        <v>186589.125128132</v>
       </c>
     </row>
     <row r="7">
@@ -12634,28 +12634,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>106.7654947436857</v>
+        <v>148.6372620372456</v>
       </c>
       <c r="AB7" t="n">
-        <v>146.0812600694504</v>
+        <v>203.3720593324708</v>
       </c>
       <c r="AC7" t="n">
-        <v>132.1394696347978</v>
+        <v>183.9625154243156</v>
       </c>
       <c r="AD7" t="n">
-        <v>106765.4947436857</v>
+        <v>148637.2620372456</v>
       </c>
       <c r="AE7" t="n">
-        <v>146081.2600694504</v>
+        <v>203372.0593324708</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.032157017269033e-06</v>
+        <v>5.099114813569825e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.631944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>132139.4696347978</v>
+        <v>183962.5154243156</v>
       </c>
     </row>
     <row r="8">
@@ -12740,28 +12740,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>106.133486608332</v>
+        <v>137.6866585740023</v>
       </c>
       <c r="AB8" t="n">
-        <v>145.2165186564287</v>
+        <v>188.3889605675399</v>
       </c>
       <c r="AC8" t="n">
-        <v>131.3572579285625</v>
+        <v>170.4093825765937</v>
       </c>
       <c r="AD8" t="n">
-        <v>106133.486608332</v>
+        <v>137686.6585740023</v>
       </c>
       <c r="AE8" t="n">
-        <v>145216.5186564288</v>
+        <v>188388.9605675399</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.060995215387501e-06</v>
+        <v>5.147611406056643e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.571180555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>131357.2579285625</v>
+        <v>170409.3825765937</v>
       </c>
     </row>
     <row r="9">
@@ -12846,28 +12846,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>105.0870291340167</v>
+        <v>136.640201099687</v>
       </c>
       <c r="AB9" t="n">
-        <v>143.7847093736258</v>
+        <v>186.957151284737</v>
       </c>
       <c r="AC9" t="n">
-        <v>130.0620985141529</v>
+        <v>169.1142231621841</v>
       </c>
       <c r="AD9" t="n">
-        <v>105087.0291340167</v>
+        <v>136640.201099687</v>
       </c>
       <c r="AE9" t="n">
-        <v>143784.7093736258</v>
+        <v>186957.151284737</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.086938012088452e-06</v>
+        <v>5.191238862751611e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>130062.0985141529</v>
+        <v>169114.2231621841</v>
       </c>
     </row>
     <row r="10">
@@ -12952,28 +12952,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>103.8258956499164</v>
+        <v>135.2084754149945</v>
       </c>
       <c r="AB10" t="n">
-        <v>142.0591709033979</v>
+        <v>184.9982010396622</v>
       </c>
       <c r="AC10" t="n">
-        <v>128.5012430137145</v>
+        <v>167.3422323790947</v>
       </c>
       <c r="AD10" t="n">
-        <v>103825.8956499164</v>
+        <v>135208.4754149945</v>
       </c>
       <c r="AE10" t="n">
-        <v>142059.1709033979</v>
+        <v>184998.2010396622</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.138290851629531e-06</v>
+        <v>5.277597855155848e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH10" t="n">
-        <v>128501.2430137145</v>
+        <v>167342.2323790947</v>
       </c>
     </row>
     <row r="11">
@@ -13058,28 +13058,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>102.7918509177333</v>
+        <v>134.1744306828114</v>
       </c>
       <c r="AB11" t="n">
-        <v>140.6443452819918</v>
+        <v>183.5833754182561</v>
       </c>
       <c r="AC11" t="n">
-        <v>127.2214463638947</v>
+        <v>166.0624357292749</v>
       </c>
       <c r="AD11" t="n">
-        <v>102791.8509177333</v>
+        <v>134174.4306828114</v>
       </c>
       <c r="AE11" t="n">
-        <v>140644.3452819918</v>
+        <v>183583.3754182561</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.164256811541822e-06</v>
+        <v>5.321264264937151e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>127221.4463638947</v>
+        <v>166062.4357292749</v>
       </c>
     </row>
     <row r="12">
@@ -13164,28 +13164,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>102.0232573095154</v>
+        <v>133.4058370745935</v>
       </c>
       <c r="AB12" t="n">
-        <v>139.5927215992717</v>
+        <v>182.5317517355359</v>
       </c>
       <c r="AC12" t="n">
-        <v>126.27018816949</v>
+        <v>165.1111775348702</v>
       </c>
       <c r="AD12" t="n">
-        <v>102023.2573095154</v>
+        <v>133405.8370745935</v>
       </c>
       <c r="AE12" t="n">
-        <v>139592.7215992717</v>
+        <v>182531.7517355359</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.186979921866495e-06</v>
+        <v>5.359477242631585e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.310763888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>126270.18816949</v>
+        <v>165111.1775348702</v>
       </c>
     </row>
     <row r="13">
@@ -13270,28 +13270,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>101.9729773243973</v>
+        <v>133.3555570894754</v>
       </c>
       <c r="AB13" t="n">
-        <v>139.5239263054368</v>
+        <v>182.462956441701</v>
       </c>
       <c r="AC13" t="n">
-        <v>126.2079586019438</v>
+        <v>165.048947967324</v>
       </c>
       <c r="AD13" t="n">
-        <v>101972.9773243973</v>
+        <v>133355.5570894754</v>
       </c>
       <c r="AE13" t="n">
-        <v>139523.9263054368</v>
+        <v>182462.956441701</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.185891250933508e-06</v>
+        <v>5.357646447573849e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.310763888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>126207.9586019438</v>
+        <v>165048.947967324</v>
       </c>
     </row>
   </sheetData>
@@ -13567,28 +13567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.47157640823801</v>
+        <v>134.2412925172754</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.6284227503865</v>
+        <v>183.6748587299056</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.1614294212671</v>
+        <v>166.1451880020582</v>
       </c>
       <c r="AD2" t="n">
-        <v>95471.576408238</v>
+        <v>134241.2925172754</v>
       </c>
       <c r="AE2" t="n">
-        <v>130628.4227503865</v>
+        <v>183674.8587299056</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.299587769448874e-06</v>
+        <v>5.894472751878393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>118161.4294212671</v>
+        <v>166145.1880020582</v>
       </c>
     </row>
     <row r="3">
@@ -13673,28 +13673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.10976954613845</v>
+        <v>121.1658109228246</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.0286502892128</v>
+        <v>165.7844079628511</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.0006527879652</v>
+        <v>149.9621767468004</v>
       </c>
       <c r="AD3" t="n">
-        <v>92109.76954613846</v>
+        <v>121165.8109228246</v>
       </c>
       <c r="AE3" t="n">
-        <v>126028.6502892128</v>
+        <v>165784.4079628511</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.49328607637635e-06</v>
+        <v>6.240500641434941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>114000.6527879652</v>
+        <v>149962.1767468004</v>
       </c>
     </row>
     <row r="4">
@@ -13779,28 +13779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.80035729833358</v>
+        <v>118.8563986750197</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.86881056769</v>
+        <v>162.6245682413283</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.1423837346006</v>
+        <v>147.1039076934358</v>
       </c>
       <c r="AD4" t="n">
-        <v>89800.35729833358</v>
+        <v>118856.3986750198</v>
       </c>
       <c r="AE4" t="n">
-        <v>122868.81056769</v>
+        <v>162624.5682413283</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.626032305682363e-06</v>
+        <v>6.477642092498565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.024305555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>111142.3837346006</v>
+        <v>147103.9076934358</v>
       </c>
     </row>
     <row r="5">
@@ -13885,28 +13885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.06196773769267</v>
+        <v>119.1180091143788</v>
       </c>
       <c r="AB5" t="n">
-        <v>123.2267575122589</v>
+        <v>162.9825151858972</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.4661687251617</v>
+        <v>147.4276926839969</v>
       </c>
       <c r="AD5" t="n">
-        <v>90061.96773769267</v>
+        <v>119118.0091143788</v>
       </c>
       <c r="AE5" t="n">
-        <v>123226.7575122589</v>
+        <v>162982.5151858972</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.595946179047913e-06</v>
+        <v>6.423895422899912e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>111466.1687251617</v>
+        <v>147427.6926839969</v>
       </c>
     </row>
   </sheetData>
@@ -14182,28 +14182,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.512463417164</v>
+        <v>249.7341971973312</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.4580925626339</v>
+        <v>341.6973461004329</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.3638465356878</v>
+        <v>309.0862309639468</v>
       </c>
       <c r="AD2" t="n">
-        <v>184512.463417164</v>
+        <v>249734.1971973312</v>
       </c>
       <c r="AE2" t="n">
-        <v>252458.0925626339</v>
+        <v>341697.3461004329</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.943870362629075e-06</v>
+        <v>3.181901650829064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.930555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>228363.8465356878</v>
+        <v>309086.2309639468</v>
       </c>
     </row>
     <row r="3">
@@ -14288,28 +14288,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.6103015457058</v>
+        <v>216.0186402655595</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.1223443180471</v>
+        <v>295.5662336810113</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.0187381235555</v>
+        <v>267.3578071683972</v>
       </c>
       <c r="AD3" t="n">
-        <v>161610.3015457058</v>
+        <v>216018.6402655595</v>
       </c>
       <c r="AE3" t="n">
-        <v>221122.344318047</v>
+        <v>295566.2336810114</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.159579275567738e-06</v>
+        <v>3.534993379255732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.940972222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>200018.7381235555</v>
+        <v>267357.8071683972</v>
       </c>
     </row>
     <row r="4">
@@ -14394,28 +14394,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.3992232607653</v>
+        <v>197.908915574285</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.255828878275</v>
+        <v>270.7877094137553</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.0938690696108</v>
+        <v>244.9441104803229</v>
       </c>
       <c r="AD4" t="n">
-        <v>154399.2232607653</v>
+        <v>197908.915574285</v>
       </c>
       <c r="AE4" t="n">
-        <v>211255.828878275</v>
+        <v>270787.7094137553</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.322239181469537e-06</v>
+        <v>3.801249726933479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>191093.8690696108</v>
+        <v>244944.1104803229</v>
       </c>
     </row>
     <row r="5">
@@ -14500,28 +14500,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.2074490156402</v>
+        <v>193.5304468809223</v>
       </c>
       <c r="AB5" t="n">
-        <v>190.469773142327</v>
+        <v>264.7968953830936</v>
       </c>
       <c r="AC5" t="n">
-        <v>172.2916053196826</v>
+        <v>239.5250513325855</v>
       </c>
       <c r="AD5" t="n">
-        <v>139207.4490156402</v>
+        <v>193530.4468809223</v>
       </c>
       <c r="AE5" t="n">
-        <v>190469.773142327</v>
+        <v>264796.8953830936</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.430916275516557e-06</v>
+        <v>3.97914215824141e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.942708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>172291.6053196826</v>
+        <v>239525.0513325855</v>
       </c>
     </row>
     <row r="6">
@@ -14606,28 +14606,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.7011855138603</v>
+        <v>179.2961291734006</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.6723487337656</v>
+        <v>245.3208739218952</v>
       </c>
       <c r="AC6" t="n">
-        <v>167.9520403634453</v>
+        <v>221.9077940248697</v>
       </c>
       <c r="AD6" t="n">
-        <v>135701.1855138603</v>
+        <v>179296.1291734006</v>
       </c>
       <c r="AE6" t="n">
-        <v>185672.3487337656</v>
+        <v>245320.8739218952</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.531233593098421e-06</v>
+        <v>4.143350556371808e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.621527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>167952.0403634454</v>
+        <v>221907.7940248697</v>
       </c>
     </row>
     <row r="7">
@@ -14712,28 +14712,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>132.8653395501195</v>
+        <v>176.2896910090676</v>
       </c>
       <c r="AB7" t="n">
-        <v>181.7922191774832</v>
+        <v>241.2073325907659</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.4422249262172</v>
+        <v>218.1868433049906</v>
       </c>
       <c r="AD7" t="n">
-        <v>132865.3395501195</v>
+        <v>176289.6910090676</v>
       </c>
       <c r="AE7" t="n">
-        <v>181792.2191774832</v>
+        <v>241207.3325907659</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.618099674612681e-06</v>
+        <v>4.285540762820272e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>164442.2249262173</v>
+        <v>218186.8433049906</v>
       </c>
     </row>
     <row r="8">
@@ -14818,28 +14818,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.1129503366575</v>
+        <v>163.8092475898637</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.3945229456698</v>
+        <v>224.1310393063153</v>
       </c>
       <c r="AC8" t="n">
-        <v>162.2733614575795</v>
+        <v>202.7402874848744</v>
       </c>
       <c r="AD8" t="n">
-        <v>131112.9503366575</v>
+        <v>163809.2475898637</v>
       </c>
       <c r="AE8" t="n">
-        <v>179394.5229456698</v>
+        <v>224131.0393063153</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.666857626176739e-06</v>
+        <v>4.365352158454129e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>162273.3614575795</v>
+        <v>202740.2874848744</v>
       </c>
     </row>
     <row r="9">
@@ -14924,28 +14924,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>128.7635429765222</v>
+        <v>161.4598402297284</v>
       </c>
       <c r="AB9" t="n">
-        <v>176.1799601469967</v>
+        <v>220.9164765076423</v>
       </c>
       <c r="AC9" t="n">
-        <v>159.3655920207436</v>
+        <v>199.8325180480385</v>
       </c>
       <c r="AD9" t="n">
-        <v>128763.5429765222</v>
+        <v>161459.8402297284</v>
       </c>
       <c r="AE9" t="n">
-        <v>176179.9601469967</v>
+        <v>220916.4765076423</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.743185053317373e-06</v>
+        <v>4.490291748609639e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH9" t="n">
-        <v>159365.5920207436</v>
+        <v>199832.5180480384</v>
       </c>
     </row>
     <row r="10">
@@ -15030,28 +15030,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>128.9545866313642</v>
+        <v>161.6508838845705</v>
       </c>
       <c r="AB10" t="n">
-        <v>176.4413545038027</v>
+        <v>221.1778708644483</v>
       </c>
       <c r="AC10" t="n">
-        <v>159.6020392670054</v>
+        <v>200.0689652943002</v>
       </c>
       <c r="AD10" t="n">
-        <v>128954.5866313642</v>
+        <v>161650.8838845705</v>
       </c>
       <c r="AE10" t="n">
-        <v>176441.3545038027</v>
+        <v>221177.8708644483</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.74345185469392e-06</v>
+        <v>4.490728473072751e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH10" t="n">
-        <v>159602.0392670054</v>
+        <v>200068.9652943002</v>
       </c>
     </row>
     <row r="11">
@@ -15136,28 +15136,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>116.1834433712586</v>
+        <v>159.6930461762273</v>
       </c>
       <c r="AB11" t="n">
-        <v>158.9673128722587</v>
+        <v>218.4990709381906</v>
       </c>
       <c r="AC11" t="n">
-        <v>143.7956956437989</v>
+        <v>197.6458262732845</v>
       </c>
       <c r="AD11" t="n">
-        <v>116183.4433712586</v>
+        <v>159693.0461762272</v>
       </c>
       <c r="AE11" t="n">
-        <v>158967.3128722587</v>
+        <v>218499.0709381906</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.800191614106358e-06</v>
+        <v>4.583605208894732e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>143795.6956437989</v>
+        <v>197645.8262732844</v>
       </c>
     </row>
     <row r="12">
@@ -15242,28 +15242,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>115.2737094862472</v>
+        <v>158.7833122912159</v>
       </c>
       <c r="AB12" t="n">
-        <v>157.7225748361603</v>
+        <v>217.2543329020922</v>
       </c>
       <c r="AC12" t="n">
-        <v>142.6697536588646</v>
+        <v>196.5198842883501</v>
       </c>
       <c r="AD12" t="n">
-        <v>115273.7094862472</v>
+        <v>158783.3122912159</v>
       </c>
       <c r="AE12" t="n">
-        <v>157722.5748361603</v>
+        <v>217254.3329020922</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.826493783144333e-06</v>
+        <v>4.626658962216597e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>142669.7536588646</v>
+        <v>196519.8842883501</v>
       </c>
     </row>
     <row r="13">
@@ -15348,28 +15348,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>114.3969908343541</v>
+        <v>157.9065936393228</v>
       </c>
       <c r="AB13" t="n">
-        <v>156.5230096985436</v>
+        <v>216.0547677644756</v>
       </c>
       <c r="AC13" t="n">
-        <v>141.5846733343814</v>
+        <v>195.4348039638669</v>
       </c>
       <c r="AD13" t="n">
-        <v>114396.9908343541</v>
+        <v>157906.5936393228</v>
       </c>
       <c r="AE13" t="n">
-        <v>156523.0096985436</v>
+        <v>216054.7677644756</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.850839408754294e-06</v>
+        <v>4.666510069475638e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>141584.6733343814</v>
+        <v>195434.8039638669</v>
       </c>
     </row>
     <row r="14">
@@ -15454,28 +15454,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>113.3679063065807</v>
+        <v>156.8775091115494</v>
       </c>
       <c r="AB14" t="n">
-        <v>155.1149708476396</v>
+        <v>214.6467289135715</v>
       </c>
       <c r="AC14" t="n">
-        <v>140.3110157352122</v>
+        <v>194.1611463646978</v>
       </c>
       <c r="AD14" t="n">
-        <v>113367.9063065807</v>
+        <v>156877.5091115494</v>
       </c>
       <c r="AE14" t="n">
-        <v>155114.9708476396</v>
+        <v>214646.7289135715</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.879364922596832e-06</v>
+        <v>4.713203193323444e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>140311.0157352122</v>
+        <v>194161.1463646978</v>
       </c>
     </row>
     <row r="15">
@@ -15560,28 +15560,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>112.3127528378562</v>
+        <v>155.8223556428248</v>
       </c>
       <c r="AB15" t="n">
-        <v>153.6712633216457</v>
+        <v>213.2030213875776</v>
       </c>
       <c r="AC15" t="n">
-        <v>139.0050936292425</v>
+        <v>192.855224258728</v>
       </c>
       <c r="AD15" t="n">
-        <v>112312.7528378562</v>
+        <v>155822.3556428248</v>
       </c>
       <c r="AE15" t="n">
-        <v>153671.2633216457</v>
+        <v>213203.0213875776</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.909713579179111e-06</v>
+        <v>4.76288060100252e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.631944444444445</v>
       </c>
       <c r="AH15" t="n">
-        <v>139005.0936292425</v>
+        <v>192855.224258728</v>
       </c>
     </row>
     <row r="16">
@@ -15666,28 +15666,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>111.0620849772651</v>
+        <v>143.843633576492</v>
       </c>
       <c r="AB16" t="n">
-        <v>151.9600443792139</v>
+        <v>196.8132053925087</v>
       </c>
       <c r="AC16" t="n">
-        <v>137.457191020965</v>
+        <v>178.0296292989721</v>
       </c>
       <c r="AD16" t="n">
-        <v>111062.0849772651</v>
+        <v>143843.633576492</v>
       </c>
       <c r="AE16" t="n">
-        <v>151960.0443792139</v>
+        <v>196813.2053925087</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.944931360883382e-06</v>
+        <v>4.820528230133404e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.553819444444445</v>
       </c>
       <c r="AH16" t="n">
-        <v>137457.191020965</v>
+        <v>178029.6292989721</v>
       </c>
     </row>
     <row r="17">
@@ -15772,28 +15772,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>111.2711538599829</v>
+        <v>154.7807566649516</v>
       </c>
       <c r="AB17" t="n">
-        <v>152.2461016480165</v>
+        <v>211.7778597139484</v>
       </c>
       <c r="AC17" t="n">
-        <v>137.715947385517</v>
+        <v>191.5660780150025</v>
       </c>
       <c r="AD17" t="n">
-        <v>111271.1538599829</v>
+        <v>154780.7566649516</v>
       </c>
       <c r="AE17" t="n">
-        <v>152246.1016480165</v>
+        <v>211777.8597139484</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.920652435617559e-06</v>
+        <v>4.780786303990144e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.605902777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>137715.947385517</v>
+        <v>191566.0780150025</v>
       </c>
     </row>
     <row r="18">
@@ -15878,28 +15878,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>110.2433754481006</v>
+        <v>143.0249240473275</v>
       </c>
       <c r="AB18" t="n">
-        <v>150.8398498824963</v>
+        <v>195.6930108957911</v>
       </c>
       <c r="AC18" t="n">
-        <v>136.443906314811</v>
+        <v>177.016344592818</v>
       </c>
       <c r="AD18" t="n">
-        <v>110243.3754481006</v>
+        <v>143024.9240473275</v>
       </c>
       <c r="AE18" t="n">
-        <v>150839.8498824963</v>
+        <v>195693.0108957911</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.955381081464827e-06</v>
+        <v>4.837633271605322e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>136443.906314811</v>
+        <v>177016.344592818</v>
       </c>
     </row>
     <row r="19">
@@ -15984,28 +15984,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>109.8773166450701</v>
+        <v>142.6588652442969</v>
       </c>
       <c r="AB19" t="n">
-        <v>150.3389920788156</v>
+        <v>195.1921530921104</v>
       </c>
       <c r="AC19" t="n">
-        <v>135.990849676955</v>
+        <v>176.5632879549621</v>
       </c>
       <c r="AD19" t="n">
-        <v>109877.3166450701</v>
+        <v>142658.865244297</v>
       </c>
       <c r="AE19" t="n">
-        <v>150338.9920788156</v>
+        <v>195192.1530921104</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.959516502801313e-06</v>
+        <v>4.84440250078357e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.519097222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>135990.849676955</v>
+        <v>176563.2879549621</v>
       </c>
     </row>
     <row r="20">
@@ -16090,28 +16090,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>109.768470656852</v>
+        <v>142.5500192560789</v>
       </c>
       <c r="AB20" t="n">
-        <v>150.1900641957896</v>
+        <v>195.0432252090844</v>
       </c>
       <c r="AC20" t="n">
-        <v>135.8561352620634</v>
+        <v>176.4285735400704</v>
       </c>
       <c r="AD20" t="n">
-        <v>109768.470656852</v>
+        <v>142550.0192560789</v>
       </c>
       <c r="AE20" t="n">
-        <v>150190.0641957896</v>
+        <v>195043.2252090844</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.955381081464827e-06</v>
+        <v>4.837633271605322e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>135856.1352620634</v>
+        <v>176428.5735400704</v>
       </c>
     </row>
   </sheetData>
@@ -16387,28 +16387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.0513910771373</v>
+        <v>158.243070251985</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.5231213314773</v>
+        <v>216.5151499102203</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.1075813307702</v>
+        <v>195.8512478837723</v>
       </c>
       <c r="AD2" t="n">
-        <v>118051.3910771373</v>
+        <v>158243.070251985</v>
       </c>
       <c r="AE2" t="n">
-        <v>161523.1213314773</v>
+        <v>216515.1499102203</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.857661560063842e-06</v>
+        <v>4.948872592148673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.335069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>146107.5813307702</v>
+        <v>195851.2478837723</v>
       </c>
     </row>
     <row r="3">
@@ -16493,28 +16493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.5844461451907</v>
+        <v>143.8613766660591</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.728809039032</v>
+        <v>196.8374822704243</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.2024104220179</v>
+        <v>178.0515892257322</v>
       </c>
       <c r="AD3" t="n">
-        <v>103584.4461451907</v>
+        <v>143861.3766660591</v>
       </c>
       <c r="AE3" t="n">
-        <v>141728.809039032</v>
+        <v>196837.4822704243</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.047525205502949e-06</v>
+        <v>5.277676745968077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>128202.4104220179</v>
+        <v>178051.5892257322</v>
       </c>
     </row>
     <row r="4">
@@ -16599,28 +16599,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.8690121422951</v>
+        <v>131.2260565284467</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.0134324397788</v>
+        <v>179.5492798271688</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.8416241508323</v>
+        <v>162.413348559511</v>
       </c>
       <c r="AD4" t="n">
-        <v>100869.0121422951</v>
+        <v>131226.0565284468</v>
       </c>
       <c r="AE4" t="n">
-        <v>138013.4324397788</v>
+        <v>179549.2798271688</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.175767075136307e-06</v>
+        <v>5.499764862581946e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>124841.6241508323</v>
+        <v>162413.348559511</v>
       </c>
     </row>
     <row r="5">
@@ -16705,28 +16705,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.86690683196892</v>
+        <v>128.0533590175284</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.9058195106536</v>
+        <v>175.2082551231968</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.1260360345906</v>
+        <v>158.4866251606183</v>
       </c>
       <c r="AD5" t="n">
-        <v>97866.90683196892</v>
+        <v>128053.3590175284</v>
       </c>
       <c r="AE5" t="n">
-        <v>133905.8195106536</v>
+        <v>175208.2551231968</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.31719291404472e-06</v>
+        <v>5.744684858629288e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.319444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>121126.0360345906</v>
+        <v>158486.6251606183</v>
       </c>
     </row>
     <row r="6">
@@ -16811,28 +16811,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.50790150582195</v>
+        <v>127.6943536913814</v>
       </c>
       <c r="AB6" t="n">
-        <v>133.4146125852224</v>
+        <v>174.7170481977655</v>
       </c>
       <c r="AC6" t="n">
-        <v>120.6817092087092</v>
+        <v>158.0422983347368</v>
       </c>
       <c r="AD6" t="n">
-        <v>97507.90150582195</v>
+        <v>127694.3536913814</v>
       </c>
       <c r="AE6" t="n">
-        <v>133414.6125852224</v>
+        <v>174717.0481977655</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.32431612088747e-06</v>
+        <v>5.757020764184003e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>120681.7092087092</v>
+        <v>158042.2983347368</v>
       </c>
     </row>
     <row r="7">
@@ -16917,28 +16917,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>95.64396285056036</v>
+        <v>125.8304150361198</v>
       </c>
       <c r="AB7" t="n">
-        <v>130.8642894859249</v>
+        <v>172.166725098468</v>
       </c>
       <c r="AC7" t="n">
-        <v>118.3747853666068</v>
+        <v>155.7353744926345</v>
       </c>
       <c r="AD7" t="n">
-        <v>95643.96285056036</v>
+        <v>125830.4150361198</v>
       </c>
       <c r="AE7" t="n">
-        <v>130864.2894859249</v>
+        <v>172166.725098468</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.406776295016244e-06</v>
+        <v>5.899824552215705e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.154513888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>118374.7853666068</v>
+        <v>155735.3744926345</v>
       </c>
     </row>
     <row r="8">
@@ -17023,28 +17023,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>95.45839533046696</v>
+        <v>125.6448475160264</v>
       </c>
       <c r="AB8" t="n">
-        <v>130.610387818272</v>
+        <v>171.9128234308152</v>
       </c>
       <c r="AC8" t="n">
-        <v>118.1451157177614</v>
+        <v>155.5057048437891</v>
       </c>
       <c r="AD8" t="n">
-        <v>95458.39533046696</v>
+        <v>125644.8475160264</v>
       </c>
       <c r="AE8" t="n">
-        <v>130610.387818272</v>
+        <v>171912.8234308152</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.401971148705372e-06</v>
+        <v>5.891503043044897e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.163194444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>118145.1157177614</v>
+        <v>155505.704843789</v>
       </c>
     </row>
   </sheetData>
@@ -17320,28 +17320,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.9226955128057</v>
+        <v>208.0009782385653</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.9720667074823</v>
+        <v>284.5961147813987</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.7417501656448</v>
+        <v>257.4346610199015</v>
       </c>
       <c r="AD2" t="n">
-        <v>154922.6955128057</v>
+        <v>208000.9782385653</v>
       </c>
       <c r="AE2" t="n">
-        <v>211972.0667074823</v>
+        <v>284596.1147813987</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.230278670960478e-06</v>
+        <v>3.714056646954776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>191741.7501656449</v>
+        <v>257434.6610199015</v>
       </c>
     </row>
     <row r="3">
@@ -17426,28 +17426,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.2724956712239</v>
+        <v>188.7181431894682</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.1364816643523</v>
+        <v>258.2124891685943</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.0357367476795</v>
+        <v>233.5690516059236</v>
       </c>
       <c r="AD3" t="n">
-        <v>146272.4956712239</v>
+        <v>188718.1431894682</v>
       </c>
       <c r="AE3" t="n">
-        <v>200136.4816643524</v>
+        <v>258212.4891685943</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449297807559671e-06</v>
+        <v>4.078786620248299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>181035.7367476795</v>
+        <v>233569.0516059236</v>
       </c>
     </row>
     <row r="4">
@@ -17532,28 +17532,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.7008988841842</v>
+        <v>173.2317977484492</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.8307359699691</v>
+        <v>237.0233881268603</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.7633815195595</v>
+        <v>214.4022086285159</v>
       </c>
       <c r="AD4" t="n">
-        <v>130700.8988841842</v>
+        <v>173231.7977484492</v>
       </c>
       <c r="AE4" t="n">
-        <v>178830.7359699691</v>
+        <v>237023.3881268603</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.594990962633264e-06</v>
+        <v>4.32140770525552e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.638888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>161763.3815195595</v>
+        <v>214402.2086285159</v>
       </c>
     </row>
     <row r="5">
@@ -17638,28 +17638,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.1943513394739</v>
+        <v>169.5546580031467</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.0329229213392</v>
+        <v>231.9921633033836</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.4234650145165</v>
+        <v>209.8511568408217</v>
       </c>
       <c r="AD5" t="n">
-        <v>127194.3513394739</v>
+        <v>169554.6580031467</v>
       </c>
       <c r="AE5" t="n">
-        <v>174032.9229213392</v>
+        <v>231992.1633033836</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.713677693004247e-06</v>
+        <v>4.519055311170991e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.300347222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>157423.4650145165</v>
+        <v>209851.1568408218</v>
       </c>
     </row>
     <row r="6">
@@ -17744,28 +17744,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.7314792345435</v>
+        <v>156.6297428912933</v>
       </c>
       <c r="AB6" t="n">
-        <v>170.6631126531263</v>
+        <v>214.3077242403431</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.3752647087423</v>
+        <v>193.8544958216861</v>
       </c>
       <c r="AD6" t="n">
-        <v>124731.4792345435</v>
+        <v>156629.7428912933</v>
       </c>
       <c r="AE6" t="n">
-        <v>170663.1126531263</v>
+        <v>214307.7242403431</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.801545595523561e-06</v>
+        <v>4.665380688199007e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.074652777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>154375.2647087423</v>
+        <v>193854.4958216861</v>
       </c>
     </row>
     <row r="7">
@@ -17850,28 +17850,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.6394683738527</v>
+        <v>154.085026383546</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.7500458147824</v>
+        <v>210.825930849476</v>
       </c>
       <c r="AC7" t="n">
-        <v>138.1717958282971</v>
+        <v>190.7049999053145</v>
       </c>
       <c r="AD7" t="n">
-        <v>111639.4683738527</v>
+        <v>154085.026383546</v>
       </c>
       <c r="AE7" t="n">
-        <v>152750.0458147824</v>
+        <v>210825.930849476</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.883021444858825e-06</v>
+        <v>4.801061454791104e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH7" t="n">
-        <v>138171.7958282971</v>
+        <v>190704.9999053145</v>
       </c>
     </row>
     <row r="8">
@@ -17956,28 +17956,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>111.5208377649434</v>
+        <v>153.9663957746367</v>
       </c>
       <c r="AB8" t="n">
-        <v>152.5877301820597</v>
+        <v>210.6636152167532</v>
       </c>
       <c r="AC8" t="n">
-        <v>138.0249713717499</v>
+        <v>190.5581754487674</v>
       </c>
       <c r="AD8" t="n">
-        <v>111520.8377649434</v>
+        <v>153966.3957746367</v>
       </c>
       <c r="AE8" t="n">
-        <v>152587.7301820597</v>
+        <v>210663.6152167532</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.896125153886127e-06</v>
+        <v>4.822882906184733e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.840277777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>138024.9713717499</v>
+        <v>190558.1754487674</v>
       </c>
     </row>
     <row r="9">
@@ -18062,28 +18062,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>109.6569958119378</v>
+        <v>152.1025538216311</v>
       </c>
       <c r="AB9" t="n">
-        <v>150.037539395055</v>
+        <v>208.1134244297486</v>
       </c>
       <c r="AC9" t="n">
-        <v>135.7181672142409</v>
+        <v>188.2513712912584</v>
       </c>
       <c r="AD9" t="n">
-        <v>109656.9958119378</v>
+        <v>152102.5538216312</v>
       </c>
       <c r="AE9" t="n">
-        <v>150037.539395055</v>
+        <v>208113.4244297486</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.957739980828094e-06</v>
+        <v>4.925489347493804e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>135718.1672142409</v>
+        <v>188251.3712912584</v>
       </c>
     </row>
     <row r="10">
@@ -18168,28 +18168,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>108.1370025307487</v>
+        <v>140.120517533519</v>
       </c>
       <c r="AB10" t="n">
-        <v>147.9578175303622</v>
+        <v>191.7190737702282</v>
       </c>
       <c r="AC10" t="n">
-        <v>133.8369310854058</v>
+        <v>173.4216744490618</v>
       </c>
       <c r="AD10" t="n">
-        <v>108137.0025307487</v>
+        <v>140120.517533519</v>
       </c>
       <c r="AE10" t="n">
-        <v>147957.8175303622</v>
+        <v>191719.0737702282</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.012369206790347e-06</v>
+        <v>5.01646275025505e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>133836.9310854058</v>
+        <v>173421.6744490618</v>
       </c>
     </row>
     <row r="11">
@@ -18274,28 +18274,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>107.3367232992171</v>
+        <v>139.3202383019874</v>
       </c>
       <c r="AB11" t="n">
-        <v>146.8628401799533</v>
+        <v>190.6240964198193</v>
       </c>
       <c r="AC11" t="n">
-        <v>132.8464568365092</v>
+        <v>172.4312002001652</v>
       </c>
       <c r="AD11" t="n">
-        <v>107336.7232992171</v>
+        <v>139320.2383019874</v>
       </c>
       <c r="AE11" t="n">
-        <v>146862.8401799533</v>
+        <v>190624.0964198193</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.035631714628015e-06</v>
+        <v>5.055201528948619e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>132846.4568365092</v>
+        <v>172431.2002001652</v>
       </c>
     </row>
     <row r="12">
@@ -18380,28 +18380,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>106.3171845302675</v>
+        <v>138.1301073324456</v>
       </c>
       <c r="AB12" t="n">
-        <v>145.467862257401</v>
+        <v>188.9957067224202</v>
       </c>
       <c r="AC12" t="n">
-        <v>131.5846136490211</v>
+        <v>170.958221730026</v>
       </c>
       <c r="AD12" t="n">
-        <v>106317.1845302675</v>
+        <v>138130.1073324456</v>
       </c>
       <c r="AE12" t="n">
-        <v>145467.8622574011</v>
+        <v>188995.7067224202</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.063231687126287e-06</v>
+        <v>5.101163436152275e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.467013888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>131584.6136490211</v>
+        <v>170958.221730026</v>
       </c>
     </row>
     <row r="13">
@@ -18486,28 +18486,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>105.1292688050574</v>
+        <v>136.9421916072355</v>
       </c>
       <c r="AB13" t="n">
-        <v>143.8425035550264</v>
+        <v>187.3703480200455</v>
       </c>
       <c r="AC13" t="n">
-        <v>130.1143768999952</v>
+        <v>169.4879849810002</v>
       </c>
       <c r="AD13" t="n">
-        <v>105129.2688050574</v>
+        <v>136942.1916072355</v>
       </c>
       <c r="AE13" t="n">
-        <v>143842.5035550263</v>
+        <v>187370.3480200455</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.094484261444017e-06</v>
+        <v>5.15320797789074e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH13" t="n">
-        <v>130114.3768999952</v>
+        <v>169487.9849810002</v>
       </c>
     </row>
     <row r="14">
@@ -18592,28 +18592,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>104.0807048412341</v>
+        <v>135.8936276434122</v>
       </c>
       <c r="AB14" t="n">
-        <v>142.4078120803468</v>
+        <v>185.9356565453659</v>
       </c>
       <c r="AC14" t="n">
-        <v>128.8166103660565</v>
+        <v>168.1902184470615</v>
       </c>
       <c r="AD14" t="n">
-        <v>104080.7048412341</v>
+        <v>135893.6276434122</v>
       </c>
       <c r="AE14" t="n">
-        <v>142407.8120803467</v>
+        <v>185935.6565453659</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.135347744299192e-06</v>
+        <v>5.221257451748923e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.319444444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>128816.6103660565</v>
+        <v>168190.2184470615</v>
       </c>
     </row>
     <row r="15">
@@ -18698,28 +18698,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>104.0206745427035</v>
+        <v>135.8335973448816</v>
       </c>
       <c r="AB15" t="n">
-        <v>142.3256759775473</v>
+        <v>185.8535204425665</v>
       </c>
       <c r="AC15" t="n">
-        <v>128.7423132176295</v>
+        <v>168.1159212986344</v>
       </c>
       <c r="AD15" t="n">
-        <v>104020.6745427035</v>
+        <v>135833.5973448816</v>
       </c>
       <c r="AE15" t="n">
-        <v>142325.6759775474</v>
+        <v>185853.5204425665</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.132836580548315e-06</v>
+        <v>5.217075640506241e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH15" t="n">
-        <v>128742.3132176295</v>
+        <v>168115.9212986344</v>
       </c>
     </row>
   </sheetData>
@@ -18995,28 +18995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.5748376103691</v>
+        <v>109.8356831024943</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.9825357631908</v>
+        <v>150.2820272291211</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.1996411219658</v>
+        <v>135.9393214725646</v>
       </c>
       <c r="AD2" t="n">
-        <v>82574.8376103691</v>
+        <v>109835.6831024943</v>
       </c>
       <c r="AE2" t="n">
-        <v>112982.5357631908</v>
+        <v>150282.0272291211</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.830888832261856e-06</v>
+        <v>7.248866038532858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.102430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>102199.6411219658</v>
+        <v>135939.3214725647</v>
       </c>
     </row>
   </sheetData>
@@ -19292,28 +19292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.80286959792663</v>
+        <v>117.2075105888231</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.5040038899423</v>
+        <v>160.3684868179868</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.9078322906585</v>
+        <v>145.0631435147071</v>
       </c>
       <c r="AD2" t="n">
-        <v>88802.86959792663</v>
+        <v>117207.5105888231</v>
       </c>
       <c r="AE2" t="n">
-        <v>121504.0038899423</v>
+        <v>160368.4868179868</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.600474537374825e-06</v>
+        <v>6.559282674831115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.215277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>109907.8322906585</v>
+        <v>145063.1435147072</v>
       </c>
     </row>
     <row r="3">
@@ -19398,28 +19398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.25899360807202</v>
+        <v>115.6636345989684</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.3916046496227</v>
+        <v>158.2560875776671</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.9970374690633</v>
+        <v>143.152348693112</v>
       </c>
       <c r="AD3" t="n">
-        <v>87258.99360807202</v>
+        <v>115663.6345989684</v>
       </c>
       <c r="AE3" t="n">
-        <v>119391.6046496227</v>
+        <v>158256.0875776671</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.697161846240691e-06</v>
+        <v>6.735425953539684e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.050347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>107997.0374690633</v>
+        <v>143152.348693112</v>
       </c>
     </row>
     <row r="4">
@@ -19504,28 +19504,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.22958168688174</v>
+        <v>115.6342226777782</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.3513619614878</v>
+        <v>158.2158448895322</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.960635486603</v>
+        <v>143.1159467106517</v>
       </c>
       <c r="AD4" t="n">
-        <v>87229.58168688175</v>
+        <v>115634.2226777782</v>
       </c>
       <c r="AE4" t="n">
-        <v>119351.3619614878</v>
+        <v>158215.8448895322</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.698476443082108e-06</v>
+        <v>6.737820863487467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.050347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>107960.635486603</v>
+        <v>143115.9467106517</v>
       </c>
     </row>
   </sheetData>
@@ -19801,28 +19801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.6838599585523</v>
+        <v>256.4061179589121</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.9527548590999</v>
+        <v>350.8261624307935</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.6162112375522</v>
+        <v>317.3438058761148</v>
       </c>
       <c r="AD2" t="n">
-        <v>201683.8599585523</v>
+        <v>256406.1179589121</v>
       </c>
       <c r="AE2" t="n">
-        <v>275952.7548590999</v>
+        <v>350826.1624307935</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.868452595924593e-06</v>
+        <v>3.046585163576802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26909722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>249616.2112375522</v>
+        <v>317343.8058761148</v>
       </c>
     </row>
     <row r="3">
@@ -19907,28 +19907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.949967779647</v>
+        <v>219.7960647653023</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.7425082807416</v>
+        <v>300.7346725297643</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.7663811747299</v>
+        <v>272.0329774673763</v>
       </c>
       <c r="AD3" t="n">
-        <v>175949.9677796469</v>
+        <v>219796.0647653023</v>
       </c>
       <c r="AE3" t="n">
-        <v>240742.5082807416</v>
+        <v>300734.6725297644</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.108033496462875e-06</v>
+        <v>3.437231208677619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.097222222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>217766.3811747299</v>
+        <v>272032.9774673763</v>
       </c>
     </row>
     <row r="4">
@@ -20013,28 +20013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.5306393821189</v>
+        <v>201.2913955132026</v>
       </c>
       <c r="AB4" t="n">
-        <v>215.5403705638382</v>
+        <v>275.4157676906632</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.9695001100972</v>
+        <v>249.1304733708049</v>
       </c>
       <c r="AD4" t="n">
-        <v>157530.6393821189</v>
+        <v>201291.3955132026</v>
       </c>
       <c r="AE4" t="n">
-        <v>215540.3705638382</v>
+        <v>275415.7676906632</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.266030493220735e-06</v>
+        <v>3.694851502209334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.463541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>194969.5001100972</v>
+        <v>249130.4733708049</v>
       </c>
     </row>
     <row r="5">
@@ -20119,28 +20119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>153.250137056396</v>
+        <v>197.0108931874797</v>
       </c>
       <c r="AB5" t="n">
-        <v>209.6835984393523</v>
+        <v>269.5589955661774</v>
       </c>
       <c r="AC5" t="n">
-        <v>189.6716900971391</v>
+        <v>243.8326633578467</v>
       </c>
       <c r="AD5" t="n">
-        <v>153250.137056396</v>
+        <v>197010.8931874797</v>
       </c>
       <c r="AE5" t="n">
-        <v>209683.5984393523</v>
+        <v>269558.9955661774</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.371192410363485e-06</v>
+        <v>3.866322128351633e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>189671.6900971391</v>
+        <v>243832.6633578467</v>
       </c>
     </row>
     <row r="6">
@@ -20225,28 +20225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.5012801388412</v>
+        <v>182.3472876159454</v>
       </c>
       <c r="AB6" t="n">
-        <v>189.5035617311189</v>
+        <v>249.4956035105932</v>
       </c>
       <c r="AC6" t="n">
-        <v>171.4176077694737</v>
+        <v>225.6840932808935</v>
       </c>
       <c r="AD6" t="n">
-        <v>138501.2801388412</v>
+        <v>182347.2876159454</v>
       </c>
       <c r="AE6" t="n">
-        <v>189503.5617311189</v>
+        <v>249495.6035105932</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.470299617420687e-06</v>
+        <v>4.027920312476071e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.769097222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>171417.6077694737</v>
+        <v>225684.0932808935</v>
       </c>
     </row>
     <row r="7">
@@ -20331,28 +20331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>135.7379557948105</v>
+        <v>179.5839632719147</v>
       </c>
       <c r="AB7" t="n">
-        <v>185.7226594543519</v>
+        <v>245.7147012338262</v>
       </c>
       <c r="AC7" t="n">
-        <v>167.9975494994704</v>
+        <v>222.2640350108903</v>
       </c>
       <c r="AD7" t="n">
-        <v>135737.9557948105</v>
+        <v>179583.9632719147</v>
       </c>
       <c r="AE7" t="n">
-        <v>185722.6594543519</v>
+        <v>245714.7012338262</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.553054687750504e-06</v>
+        <v>4.162855696990236e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.517361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>167997.5494994704</v>
+        <v>222264.0350108903</v>
       </c>
     </row>
     <row r="8">
@@ -20437,28 +20437,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>133.3907856448015</v>
+        <v>177.0662009213136</v>
       </c>
       <c r="AB8" t="n">
-        <v>182.5111577052724</v>
+        <v>242.2697877098998</v>
       </c>
       <c r="AC8" t="n">
-        <v>165.092548969951</v>
+        <v>219.1478991987198</v>
       </c>
       <c r="AD8" t="n">
-        <v>133390.7856448015</v>
+        <v>177066.2009213136</v>
       </c>
       <c r="AE8" t="n">
-        <v>182511.1577052724</v>
+        <v>242269.7877098998</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.622153514164746e-06</v>
+        <v>4.275524040748791e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.317708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>165092.548969951</v>
+        <v>219147.8991987198</v>
       </c>
     </row>
     <row r="9">
@@ -20543,28 +20543,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>130.900624361238</v>
+        <v>163.7852194776173</v>
       </c>
       <c r="AB9" t="n">
-        <v>179.1040091789401</v>
+        <v>224.0981629830943</v>
       </c>
       <c r="AC9" t="n">
-        <v>162.0105739170079</v>
+        <v>202.7105488317993</v>
       </c>
       <c r="AD9" t="n">
-        <v>130900.624361238</v>
+        <v>163785.2194776173</v>
       </c>
       <c r="AE9" t="n">
-        <v>179104.0091789401</v>
+        <v>224098.1629830943</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.688269180500342e-06</v>
+        <v>4.383328225118985e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>162010.5739170079</v>
+        <v>202710.5488317993</v>
       </c>
     </row>
     <row r="10">
@@ -20649,28 +20649,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>131.6596512444789</v>
+        <v>164.5442463608582</v>
       </c>
       <c r="AB10" t="n">
-        <v>180.1425432464926</v>
+        <v>225.1366970506467</v>
       </c>
       <c r="AC10" t="n">
-        <v>162.9499917507451</v>
+        <v>203.6499666655366</v>
       </c>
       <c r="AD10" t="n">
-        <v>131659.6512444789</v>
+        <v>164544.2463608581</v>
       </c>
       <c r="AE10" t="n">
-        <v>180142.5432464925</v>
+        <v>225136.6970506467</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.676137662847186e-06</v>
+        <v>4.363547310272984e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.170138888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>162949.9917507451</v>
+        <v>203649.9666655366</v>
       </c>
     </row>
     <row r="11">
@@ -20755,28 +20755,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>129.8884712049745</v>
+        <v>162.7730663213538</v>
       </c>
       <c r="AB11" t="n">
-        <v>177.7191365774953</v>
+        <v>222.7132903816494</v>
       </c>
       <c r="AC11" t="n">
-        <v>160.7578716129636</v>
+        <v>201.4578465277551</v>
       </c>
       <c r="AD11" t="n">
-        <v>129888.4712049745</v>
+        <v>162773.0663213538</v>
       </c>
       <c r="AE11" t="n">
-        <v>177719.1365774953</v>
+        <v>222713.2903816495</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.730431176278523e-06</v>
+        <v>4.452075011141154e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.022569444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>160757.8716129636</v>
+        <v>201457.8465277551</v>
       </c>
     </row>
     <row r="12">
@@ -20861,28 +20861,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>117.8521131482912</v>
+        <v>161.6127797708238</v>
       </c>
       <c r="AB12" t="n">
-        <v>161.2504604777085</v>
+        <v>221.1257351349852</v>
       </c>
       <c r="AC12" t="n">
-        <v>145.8609428462031</v>
+        <v>200.0218053256842</v>
       </c>
       <c r="AD12" t="n">
-        <v>117852.1131482912</v>
+        <v>161612.7797708238</v>
       </c>
       <c r="AE12" t="n">
-        <v>161250.4604777085</v>
+        <v>221125.7351349852</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.756152645401062e-06</v>
+        <v>4.494014874311911e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>145860.9428462031</v>
+        <v>200021.8053256842</v>
       </c>
     </row>
     <row r="13">
@@ -20967,28 +20967,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>116.836771252994</v>
+        <v>160.5974378755266</v>
       </c>
       <c r="AB13" t="n">
-        <v>159.8612249028405</v>
+        <v>219.7364995601172</v>
       </c>
       <c r="AC13" t="n">
-        <v>144.6042939647957</v>
+        <v>198.7651564442768</v>
       </c>
       <c r="AD13" t="n">
-        <v>116836.771252994</v>
+        <v>160597.4378755266</v>
       </c>
       <c r="AE13" t="n">
-        <v>159861.2249028405</v>
+        <v>219736.4995601172</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.782470746539329e-06</v>
+        <v>4.536927569360342e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>144604.2939647957</v>
+        <v>198765.1564442767</v>
       </c>
     </row>
     <row r="14">
@@ -21073,28 +21073,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>115.9236452309671</v>
+        <v>159.6843118534997</v>
       </c>
       <c r="AB14" t="n">
-        <v>158.611845595227</v>
+        <v>218.4871202525037</v>
       </c>
       <c r="AC14" t="n">
-        <v>143.4741536647855</v>
+        <v>197.6350161442666</v>
       </c>
       <c r="AD14" t="n">
-        <v>115923.6452309671</v>
+        <v>159684.3118534997</v>
       </c>
       <c r="AE14" t="n">
-        <v>158611.845595227</v>
+        <v>218487.1202525037</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.809297089765069e-06</v>
+        <v>4.580668973045306e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>143474.1536647856</v>
+        <v>197635.0161442666</v>
       </c>
     </row>
     <row r="15">
@@ -21179,28 +21179,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>115.020137467544</v>
+        <v>158.7808040900767</v>
       </c>
       <c r="AB15" t="n">
-        <v>157.3756264133628</v>
+        <v>217.2509010706395</v>
       </c>
       <c r="AC15" t="n">
-        <v>142.3559175065936</v>
+        <v>196.5167799860746</v>
       </c>
       <c r="AD15" t="n">
-        <v>115020.137467544</v>
+        <v>158780.8040900767</v>
       </c>
       <c r="AE15" t="n">
-        <v>157375.6264133628</v>
+        <v>217250.9010706395</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.834731291620775e-06</v>
+        <v>4.62214043568237e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>142355.9175065936</v>
+        <v>196516.7799860746</v>
       </c>
     </row>
     <row r="16">
@@ -21285,28 +21285,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>113.9250896824509</v>
+        <v>157.6857563049835</v>
       </c>
       <c r="AB16" t="n">
-        <v>155.8773337237004</v>
+        <v>215.7526083809771</v>
       </c>
       <c r="AC16" t="n">
-        <v>141.0006197683651</v>
+        <v>195.1614822478461</v>
       </c>
       <c r="AD16" t="n">
-        <v>113925.0896824509</v>
+        <v>157685.7563049835</v>
       </c>
       <c r="AE16" t="n">
-        <v>155877.3337237004</v>
+        <v>215752.6083809771</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.865866643849002e-06</v>
+        <v>4.672907847372745e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>141000.6197683651</v>
+        <v>195161.4822478461</v>
       </c>
     </row>
     <row r="17">
@@ -21391,28 +21391,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>112.4436513941886</v>
+        <v>145.4134978565885</v>
       </c>
       <c r="AB17" t="n">
-        <v>153.8503645012564</v>
+        <v>198.9611629580598</v>
       </c>
       <c r="AC17" t="n">
-        <v>139.1671016436413</v>
+        <v>179.972588809145</v>
       </c>
       <c r="AD17" t="n">
-        <v>112443.6513941887</v>
+        <v>145413.4978565885</v>
       </c>
       <c r="AE17" t="n">
-        <v>153850.3645012564</v>
+        <v>198961.1629580598</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.906503913364765e-06</v>
+        <v>4.739168507485309e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>139167.1016436413</v>
+        <v>179972.588809145</v>
       </c>
     </row>
     <row r="18">
@@ -21497,28 +21497,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>112.5825296524531</v>
+        <v>156.3431962749858</v>
       </c>
       <c r="AB18" t="n">
-        <v>154.0403838610901</v>
+        <v>213.9156585183668</v>
       </c>
       <c r="AC18" t="n">
-        <v>139.3389858224664</v>
+        <v>193.4998483019474</v>
       </c>
       <c r="AD18" t="n">
-        <v>112582.5296524531</v>
+        <v>156343.1962749858</v>
       </c>
       <c r="AE18" t="n">
-        <v>154040.3838610901</v>
+        <v>213915.6585183668</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.885422915475674e-06</v>
+        <v>4.704795114474224e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH18" t="n">
-        <v>139338.9858224664</v>
+        <v>193499.8483019474</v>
       </c>
     </row>
     <row r="19">
@@ -21603,28 +21603,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>111.9215487351013</v>
+        <v>144.8913951975011</v>
       </c>
       <c r="AB19" t="n">
-        <v>153.1360006095497</v>
+        <v>198.2467990663531</v>
       </c>
       <c r="AC19" t="n">
-        <v>138.5209156391429</v>
+        <v>179.3264028046466</v>
       </c>
       <c r="AD19" t="n">
-        <v>111921.5487351013</v>
+        <v>144891.3951975011</v>
       </c>
       <c r="AE19" t="n">
-        <v>153136.0006095497</v>
+        <v>198246.7990663531</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.915342906190379e-06</v>
+        <v>4.75358083159897e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>138520.9156391429</v>
+        <v>179326.4028046466</v>
       </c>
     </row>
     <row r="20">
@@ -21709,28 +21709,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>111.2904463704223</v>
+        <v>144.2602928328221</v>
       </c>
       <c r="AB20" t="n">
-        <v>152.272498511925</v>
+        <v>197.3832969687284</v>
       </c>
       <c r="AC20" t="n">
-        <v>137.7398249697824</v>
+        <v>178.5453121352861</v>
       </c>
       <c r="AD20" t="n">
-        <v>111290.4463704223</v>
+        <v>144260.2928328221</v>
       </c>
       <c r="AE20" t="n">
-        <v>152272.498511925</v>
+        <v>197383.2969687284</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.915342906190379e-06</v>
+        <v>4.75358083159897e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>137739.8249697824</v>
+        <v>178545.3121352861</v>
       </c>
     </row>
     <row r="21">
@@ -21815,28 +21815,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>110.6227040801518</v>
+        <v>143.5925505425516</v>
       </c>
       <c r="AB21" t="n">
-        <v>151.3588640516666</v>
+        <v>196.46966250847</v>
       </c>
       <c r="AC21" t="n">
-        <v>136.9133865001168</v>
+        <v>177.7188736656205</v>
       </c>
       <c r="AD21" t="n">
-        <v>110622.7040801518</v>
+        <v>143592.5505425516</v>
       </c>
       <c r="AE21" t="n">
-        <v>151358.8640516666</v>
+        <v>196469.66250847</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.946213088633838e-06</v>
+        <v>4.803915873565937e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>136913.3865001168</v>
+        <v>177718.8736656205</v>
       </c>
     </row>
   </sheetData>
@@ -22112,28 +22112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.18393978734935</v>
+        <v>105.5066383425304</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.3429597658835</v>
+        <v>144.3588372045656</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.00285974615421</v>
+        <v>130.5814323907015</v>
       </c>
       <c r="AD2" t="n">
-        <v>79183.93978734934</v>
+        <v>105506.6383425304</v>
       </c>
       <c r="AE2" t="n">
-        <v>108342.9597658835</v>
+        <v>144358.8372045656</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.870627942945985e-06</v>
+        <v>7.585183650040739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>98002.85974615421</v>
+        <v>130581.4323907015</v>
       </c>
     </row>
   </sheetData>
@@ -22409,28 +22409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.9660946425225</v>
+        <v>162.6689206025863</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.8793914541671</v>
+        <v>222.570793614647</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.9526565505246</v>
+        <v>201.3289494521998</v>
       </c>
       <c r="AD2" t="n">
-        <v>121966.0946425225</v>
+        <v>162668.9206025863</v>
       </c>
       <c r="AE2" t="n">
-        <v>166879.3914541671</v>
+        <v>222570.793614647</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.737493567074801e-06</v>
+        <v>4.709806237227575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.586805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>150952.6565505246</v>
+        <v>201328.9494521998</v>
       </c>
     </row>
     <row r="3">
@@ -22515,28 +22515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.8121601615432</v>
+        <v>147.3393691401421</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.8275509217528</v>
+        <v>201.5962250116611</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.5738337812013</v>
+        <v>182.3561642386842</v>
       </c>
       <c r="AD3" t="n">
-        <v>116812.1601615432</v>
+        <v>147339.3691401421</v>
       </c>
       <c r="AE3" t="n">
-        <v>159827.5509217528</v>
+        <v>201596.2250116611</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.944268877072295e-06</v>
+        <v>5.065559272209685e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.057291666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>144573.8337812013</v>
+        <v>182356.1642386843</v>
       </c>
     </row>
     <row r="4">
@@ -22621,28 +22621,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.3275056207143</v>
+        <v>143.9449907262065</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.3772516780277</v>
+        <v>196.9518867163099</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.8844052021338</v>
+        <v>178.1550750718702</v>
       </c>
       <c r="AD4" t="n">
-        <v>103327.5056207143</v>
+        <v>143944.9907262065</v>
       </c>
       <c r="AE4" t="n">
-        <v>141377.2516780277</v>
+        <v>196951.8867163099</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.090669912434483e-06</v>
+        <v>5.317439502278028e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>127884.4052021338</v>
+        <v>178155.0750718702</v>
       </c>
     </row>
     <row r="5">
@@ -22727,28 +22727,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.0068699113994</v>
+        <v>131.6193302360189</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.2020555213227</v>
+        <v>180.0873742638803</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.0122453102079</v>
+        <v>162.9000880184032</v>
       </c>
       <c r="AD5" t="n">
-        <v>101006.8699113994</v>
+        <v>131619.3302360189</v>
       </c>
       <c r="AE5" t="n">
-        <v>138202.0555213227</v>
+        <v>180087.3742638803</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.190264732502713e-06</v>
+        <v>5.488790518548778e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>125012.2453102079</v>
+        <v>162900.0880184032</v>
       </c>
     </row>
     <row r="6">
@@ -22833,28 +22833,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.506817702044</v>
+        <v>130.9486858260713</v>
       </c>
       <c r="AB6" t="n">
-        <v>137.5178620277364</v>
+        <v>179.1697689954471</v>
       </c>
       <c r="AC6" t="n">
-        <v>124.3933502833777</v>
+        <v>162.0700577089219</v>
       </c>
       <c r="AD6" t="n">
-        <v>100506.817702044</v>
+        <v>130948.6858260713</v>
       </c>
       <c r="AE6" t="n">
-        <v>137517.8620277364</v>
+        <v>179169.7689954471</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.21381141749722e-06</v>
+        <v>5.529302147575788e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.467013888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>124393.3502833777</v>
+        <v>162070.0577089219</v>
       </c>
     </row>
     <row r="7">
@@ -22939,28 +22939,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>98.05154619866109</v>
+        <v>128.4934143226884</v>
       </c>
       <c r="AB7" t="n">
-        <v>134.1584512378757</v>
+        <v>175.8103582055863</v>
       </c>
       <c r="AC7" t="n">
-        <v>121.3545569443375</v>
+        <v>159.0312643698817</v>
       </c>
       <c r="AD7" t="n">
-        <v>98051.54619866109</v>
+        <v>128493.4143226884</v>
       </c>
       <c r="AE7" t="n">
-        <v>134158.4512378757</v>
+        <v>175810.3582055863</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.31958006350913e-06</v>
+        <v>5.711275115359716e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.258680555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>121354.5569443375</v>
+        <v>159031.2643698817</v>
       </c>
     </row>
     <row r="8">
@@ -23045,28 +23045,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>96.72993355300046</v>
+        <v>127.1718016770277</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.3501625106488</v>
+        <v>174.0020694783594</v>
       </c>
       <c r="AC8" t="n">
-        <v>119.7188487552874</v>
+        <v>157.3955561808316</v>
       </c>
       <c r="AD8" t="n">
-        <v>96729.93355300046</v>
+        <v>127171.8016770277</v>
       </c>
       <c r="AE8" t="n">
-        <v>132350.1625106488</v>
+        <v>174002.0694783594</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.372081513588346e-06</v>
+        <v>5.801602873576445e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.163194444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>119718.8487552874</v>
+        <v>157395.5561808316</v>
       </c>
     </row>
     <row r="9">
@@ -23151,28 +23151,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>96.87082844678929</v>
+        <v>127.3126965708166</v>
       </c>
       <c r="AB9" t="n">
-        <v>132.5429411201746</v>
+        <v>174.1948480878852</v>
       </c>
       <c r="AC9" t="n">
-        <v>119.8932288448867</v>
+        <v>157.5699362704308</v>
       </c>
       <c r="AD9" t="n">
-        <v>96870.8284467893</v>
+        <v>127312.6965708166</v>
       </c>
       <c r="AE9" t="n">
-        <v>132542.9411201746</v>
+        <v>174194.8480878852</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.360236382417329e-06</v>
+        <v>5.781223547998833e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.180555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>119893.2288448866</v>
+        <v>157569.9362704308</v>
       </c>
     </row>
   </sheetData>
@@ -23448,28 +23448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.41428388190225</v>
+        <v>103.1814589846452</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.9216384843434</v>
+        <v>141.1774242274351</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.81262596937782</v>
+        <v>127.7036490029661</v>
       </c>
       <c r="AD2" t="n">
-        <v>77414.28388190224</v>
+        <v>103181.4589846452</v>
       </c>
       <c r="AE2" t="n">
-        <v>105921.6384843434</v>
+        <v>141177.4242274351</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.841710382858078e-06</v>
+        <v>7.701324582911958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.467013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>95812.62596937783</v>
+        <v>127703.6490029661</v>
       </c>
     </row>
   </sheetData>
@@ -23745,28 +23745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.7363041578405</v>
+        <v>212.5430463479063</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.2406995858983</v>
+        <v>290.8107727504986</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.0759731693562</v>
+        <v>263.0562007547597</v>
       </c>
       <c r="AD2" t="n">
-        <v>169736.3041578405</v>
+        <v>212543.0463479063</v>
       </c>
       <c r="AE2" t="n">
-        <v>232240.6995858983</v>
+        <v>290810.7727504987</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.15993104172022e-06</v>
+        <v>3.580492238615651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>210075.9731693562</v>
+        <v>263056.2007547597</v>
       </c>
     </row>
     <row r="3">
@@ -23851,28 +23851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.0149812114346</v>
+        <v>192.7363825469287</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.2571154872754</v>
+        <v>263.7104215296782</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.6676644653992</v>
+        <v>238.5422690188639</v>
       </c>
       <c r="AD3" t="n">
-        <v>150014.9812114346</v>
+        <v>192736.3825469287</v>
       </c>
       <c r="AE3" t="n">
-        <v>205257.1154872754</v>
+        <v>263710.4215296782</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.369007088646816e-06</v>
+        <v>3.927075138181242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>185667.6644653992</v>
+        <v>238542.2690188639</v>
       </c>
     </row>
     <row r="4">
@@ -23957,28 +23957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.4580074654047</v>
+        <v>176.2646601469194</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.6031335658391</v>
+        <v>241.173084260891</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.1757467834742</v>
+        <v>218.1558635876512</v>
       </c>
       <c r="AD4" t="n">
-        <v>133458.0074654047</v>
+        <v>176264.6601469194</v>
       </c>
       <c r="AE4" t="n">
-        <v>182603.1335658391</v>
+        <v>241173.084260891</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.530291733825283e-06</v>
+        <v>4.194434794167973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>165175.7467834742</v>
+        <v>218155.8635876512</v>
       </c>
     </row>
     <row r="5">
@@ -24063,28 +24063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>129.8935220997027</v>
+        <v>172.5295825806253</v>
       </c>
       <c r="AB5" t="n">
-        <v>177.7260474344922</v>
+        <v>236.0625863546973</v>
       </c>
       <c r="AC5" t="n">
-        <v>160.7641229074681</v>
+        <v>213.5331044289941</v>
       </c>
       <c r="AD5" t="n">
-        <v>129893.5220997027</v>
+        <v>172529.5825806253</v>
       </c>
       <c r="AE5" t="n">
-        <v>177726.0474344922</v>
+        <v>236062.5863546973</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.646392193195388e-06</v>
+        <v>4.386893157719849e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.439236111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>160764.1229074681</v>
+        <v>213533.1044289941</v>
       </c>
     </row>
     <row r="6">
@@ -24169,28 +24169,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.4833642521677</v>
+        <v>159.5884432718548</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.4283631388365</v>
+        <v>218.3559486296739</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.7811649726598</v>
+        <v>197.5163633570191</v>
       </c>
       <c r="AD6" t="n">
-        <v>127483.3642521677</v>
+        <v>159588.4432718548</v>
       </c>
       <c r="AE6" t="n">
-        <v>174428.3631388365</v>
+        <v>218355.9486296739</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.729301660080073e-06</v>
+        <v>4.524331204099307e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>157781.1649726598</v>
+        <v>197516.3633570191</v>
       </c>
     </row>
     <row r="7">
@@ -24275,28 +24275,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.3210189322317</v>
+        <v>157.4260979519188</v>
       </c>
       <c r="AB7" t="n">
-        <v>171.4697468761587</v>
+        <v>215.3973323669961</v>
       </c>
       <c r="AC7" t="n">
-        <v>155.104914893647</v>
+        <v>194.8401132780063</v>
       </c>
       <c r="AD7" t="n">
-        <v>125321.0189322317</v>
+        <v>157426.0979519188</v>
       </c>
       <c r="AE7" t="n">
-        <v>171469.7468761587</v>
+        <v>215397.3323669961</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.802122334849996e-06</v>
+        <v>4.645045178660647e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.022569444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>155104.914893647</v>
+        <v>194840.1132780063</v>
       </c>
     </row>
     <row r="8">
@@ -24381,28 +24381,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>112.2534794966107</v>
+        <v>154.9747913235538</v>
       </c>
       <c r="AB8" t="n">
-        <v>153.5901629211984</v>
+        <v>212.0433464940527</v>
       </c>
       <c r="AC8" t="n">
-        <v>138.9317333371887</v>
+        <v>191.8062271094268</v>
       </c>
       <c r="AD8" t="n">
-        <v>112253.4794966107</v>
+        <v>154974.7913235538</v>
       </c>
       <c r="AE8" t="n">
-        <v>153590.1629211984</v>
+        <v>212043.3464940527</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.87961332686855e-06</v>
+        <v>4.773501083097342e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>138931.7333371887</v>
+        <v>191806.2271094268</v>
       </c>
     </row>
     <row r="9">
@@ -24487,28 +24487,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>112.3902191845749</v>
+        <v>155.1115310115179</v>
       </c>
       <c r="AB9" t="n">
-        <v>153.7772561948001</v>
+        <v>212.2304397676545</v>
       </c>
       <c r="AC9" t="n">
-        <v>139.1009706913451</v>
+        <v>191.9754644635832</v>
       </c>
       <c r="AD9" t="n">
-        <v>112390.2191845749</v>
+        <v>155111.5310115179</v>
       </c>
       <c r="AE9" t="n">
-        <v>153777.2561948001</v>
+        <v>212230.4397676545</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.87820769740537e-06</v>
+        <v>4.771170987697965e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.840277777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>139100.970691345</v>
+        <v>191975.4644635832</v>
       </c>
     </row>
     <row r="10">
@@ -24593,28 +24593,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>110.6698629467303</v>
+        <v>153.3911747736734</v>
       </c>
       <c r="AB10" t="n">
-        <v>151.4233888934217</v>
+        <v>209.8765724662761</v>
       </c>
       <c r="AC10" t="n">
-        <v>136.971753181536</v>
+        <v>189.8462469537741</v>
       </c>
       <c r="AD10" t="n">
-        <v>110669.8629467304</v>
+        <v>153391.1747736734</v>
       </c>
       <c r="AE10" t="n">
-        <v>151423.3888934217</v>
+        <v>209876.5724662761</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.936813377442808e-06</v>
+        <v>4.868320932978494e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>136971.753181536</v>
+        <v>189846.2469537741</v>
       </c>
     </row>
     <row r="11">
@@ -24699,28 +24699,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>109.7515941382809</v>
+        <v>152.4729059652239</v>
       </c>
       <c r="AB11" t="n">
-        <v>150.1669729985411</v>
+        <v>208.6201565713955</v>
       </c>
       <c r="AC11" t="n">
-        <v>135.8352478562716</v>
+        <v>188.7097416285097</v>
       </c>
       <c r="AD11" t="n">
-        <v>109751.5941382809</v>
+        <v>152472.9059652239</v>
       </c>
       <c r="AE11" t="n">
-        <v>150166.9729985411</v>
+        <v>208620.1565713955</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.960459692444374e-06</v>
+        <v>4.907519150745455e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>135835.2478562716</v>
+        <v>188709.7416285097</v>
       </c>
     </row>
     <row r="12">
@@ -24805,28 +24805,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>108.2339092781246</v>
+        <v>140.4242396438323</v>
       </c>
       <c r="AB12" t="n">
-        <v>148.0904096173458</v>
+        <v>192.1346397608324</v>
       </c>
       <c r="AC12" t="n">
-        <v>133.9568687697019</v>
+        <v>173.7975794047734</v>
       </c>
       <c r="AD12" t="n">
-        <v>108233.9092781246</v>
+        <v>140424.2396438323</v>
       </c>
       <c r="AE12" t="n">
-        <v>148090.4096173458</v>
+        <v>192134.6397608324</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.015823356139316e-06</v>
+        <v>4.999294843733872e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>133956.8687697019</v>
+        <v>173797.5794047734</v>
       </c>
     </row>
     <row r="13">
@@ -24911,28 +24911,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>107.2765213541665</v>
+        <v>139.2962595192819</v>
       </c>
       <c r="AB13" t="n">
-        <v>146.7804692228126</v>
+        <v>190.5912875914524</v>
       </c>
       <c r="AC13" t="n">
-        <v>132.7719472479097</v>
+        <v>172.4015226003301</v>
       </c>
       <c r="AD13" t="n">
-        <v>107276.5213541665</v>
+        <v>139296.2595192819</v>
       </c>
       <c r="AE13" t="n">
-        <v>146780.4692228126</v>
+        <v>190591.2875914524</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.042802373255196e-06</v>
+        <v>5.044017642528391e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.467013888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>132771.9472479096</v>
+        <v>172401.5226003301</v>
       </c>
     </row>
     <row r="14">
@@ -25017,28 +25017,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>105.9556134790811</v>
+        <v>137.9753516441965</v>
       </c>
       <c r="AB14" t="n">
-        <v>144.973144793779</v>
+        <v>188.7839631624188</v>
       </c>
       <c r="AC14" t="n">
-        <v>131.1371113257867</v>
+        <v>170.7666866782071</v>
       </c>
       <c r="AD14" t="n">
-        <v>105955.613479081</v>
+        <v>137975.3516441965</v>
       </c>
       <c r="AE14" t="n">
-        <v>144973.144793779</v>
+        <v>188783.9631624187</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.082341369767882e-06</v>
+        <v>5.109560971181872e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>131137.1113257867</v>
+        <v>170766.6866782071</v>
       </c>
     </row>
     <row r="15">
@@ -25123,28 +25123,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>105.940472217074</v>
+        <v>137.9602103821894</v>
       </c>
       <c r="AB15" t="n">
-        <v>144.9524278511157</v>
+        <v>188.7632462197554</v>
       </c>
       <c r="AC15" t="n">
-        <v>131.1183715790546</v>
+        <v>170.7479469314751</v>
       </c>
       <c r="AD15" t="n">
-        <v>105940.472217074</v>
+        <v>137960.2103821894</v>
       </c>
       <c r="AE15" t="n">
-        <v>144952.4278511156</v>
+        <v>188763.2462197554</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.065428473323809e-06</v>
+        <v>5.08152466202161e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.423611111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>131118.3715790546</v>
+        <v>170747.9469314751</v>
       </c>
     </row>
     <row r="16">
@@ -25229,28 +25229,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>105.6471348783063</v>
+        <v>137.6668730434217</v>
       </c>
       <c r="AB16" t="n">
-        <v>144.5510707630838</v>
+        <v>188.3618891317236</v>
       </c>
       <c r="AC16" t="n">
-        <v>130.7553194481962</v>
+        <v>170.3848948006167</v>
       </c>
       <c r="AD16" t="n">
-        <v>105647.1348783063</v>
+        <v>137666.8730434217</v>
       </c>
       <c r="AE16" t="n">
-        <v>144551.0707630838</v>
+        <v>188361.8891317236</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.063818800874038e-06</v>
+        <v>5.078856326967483e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.423611111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>130755.3194481962</v>
+        <v>170384.8948006167</v>
       </c>
     </row>
   </sheetData>
@@ -25526,28 +25526,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.734295502369</v>
+        <v>261.9343572358231</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.8629835796375</v>
+        <v>358.3901432983332</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.8669374275709</v>
+        <v>324.1858910256648</v>
       </c>
       <c r="AD2" t="n">
-        <v>206734.295502369</v>
+        <v>261934.3572358231</v>
       </c>
       <c r="AE2" t="n">
-        <v>282862.9835796375</v>
+        <v>358390.1432983332</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.81157867911763e-06</v>
+        <v>2.942807989463787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.52951388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>255866.9374275709</v>
+        <v>324185.8910256648</v>
       </c>
     </row>
     <row r="3">
@@ -25632,28 +25632,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.5789753324855</v>
+        <v>235.5231040107726</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.0761206319325</v>
+        <v>322.2531014534097</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.4955224524058</v>
+        <v>291.4977177358603</v>
       </c>
       <c r="AD3" t="n">
-        <v>180578.9753324855</v>
+        <v>235523.1040107725</v>
       </c>
       <c r="AE3" t="n">
-        <v>247076.1206319325</v>
+        <v>322253.1014534096</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.040178680494791e-06</v>
+        <v>3.314155874156163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.348958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>223495.5224524058</v>
+        <v>291497.7177358603</v>
       </c>
     </row>
     <row r="4">
@@ -25738,28 +25738,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.7229039662165</v>
+        <v>216.7522839905241</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.2764119174579</v>
+        <v>296.5700373915843</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.158101727514</v>
+        <v>268.2658092616807</v>
       </c>
       <c r="AD4" t="n">
-        <v>161722.9039662165</v>
+        <v>216752.2839905241</v>
       </c>
       <c r="AE4" t="n">
-        <v>221276.4119174579</v>
+        <v>296570.0373915843</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.191963633845053e-06</v>
+        <v>3.560722020329347e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>200158.1017275139</v>
+        <v>268265.8092616807</v>
       </c>
     </row>
     <row r="5">
@@ -25844,28 +25844,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.4734100137262</v>
+        <v>200.479935370809</v>
       </c>
       <c r="AB5" t="n">
-        <v>214.0938227003361</v>
+        <v>274.3054921247461</v>
       </c>
       <c r="AC5" t="n">
-        <v>193.6610087444447</v>
+        <v>248.1261609466168</v>
       </c>
       <c r="AD5" t="n">
-        <v>156473.4100137262</v>
+        <v>200479.935370809</v>
       </c>
       <c r="AE5" t="n">
-        <v>214093.8227003361</v>
+        <v>274305.4921247461</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.313018174787642e-06</v>
+        <v>3.757368334592792e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.246527777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>193661.0087444447</v>
+        <v>248126.1609466168</v>
       </c>
     </row>
     <row r="6">
@@ -25950,28 +25950,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>141.5404143954983</v>
+        <v>185.6321910986017</v>
       </c>
       <c r="AB6" t="n">
-        <v>193.6618392982159</v>
+        <v>253.990153375275</v>
       </c>
       <c r="AC6" t="n">
-        <v>175.1790251617474</v>
+        <v>229.7496896146319</v>
       </c>
       <c r="AD6" t="n">
-        <v>141540.4143954983</v>
+        <v>185632.1910986017</v>
       </c>
       <c r="AE6" t="n">
-        <v>193661.8392982159</v>
+        <v>253990.153375275</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.408548241664674e-06</v>
+        <v>3.912551571887608e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>175179.0251617474</v>
+        <v>229749.6896146319</v>
       </c>
     </row>
     <row r="7">
@@ -26056,28 +26056,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.6939275484189</v>
+        <v>182.7857042515223</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.7671504159069</v>
+        <v>250.0954644929661</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.6560399201346</v>
+        <v>226.2267043730191</v>
       </c>
       <c r="AD7" t="n">
-        <v>138693.9275484189</v>
+        <v>182785.7042515223</v>
       </c>
       <c r="AE7" t="n">
-        <v>189767.1504159069</v>
+        <v>250095.4644929661</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.48889981320668e-06</v>
+        <v>4.043078194565105e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.664930555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>171656.0399201346</v>
+        <v>226226.704373019</v>
       </c>
     </row>
     <row r="8">
@@ -26162,28 +26162,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>136.3377837405053</v>
+        <v>180.2589682430165</v>
       </c>
       <c r="AB8" t="n">
-        <v>186.5433705121926</v>
+        <v>246.6382728144049</v>
       </c>
       <c r="AC8" t="n">
-        <v>168.7399330458262</v>
+        <v>223.0994622160596</v>
       </c>
       <c r="AD8" t="n">
-        <v>136337.7837405053</v>
+        <v>180258.9682430165</v>
       </c>
       <c r="AE8" t="n">
-        <v>186543.3705121925</v>
+        <v>246638.2728144049</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.555918032117194e-06</v>
+        <v>4.151945533490486e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.456597222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>168739.9330458262</v>
+        <v>223099.4622160596</v>
       </c>
     </row>
     <row r="9">
@@ -26268,28 +26268,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>133.9260753417672</v>
+        <v>177.8472598442784</v>
       </c>
       <c r="AB9" t="n">
-        <v>183.2435646839753</v>
+        <v>243.3384669861876</v>
       </c>
       <c r="AC9" t="n">
-        <v>165.7550560545464</v>
+        <v>220.1145852247798</v>
       </c>
       <c r="AD9" t="n">
-        <v>133926.0753417672</v>
+        <v>177847.2598442784</v>
       </c>
       <c r="AE9" t="n">
-        <v>183243.5646839752</v>
+        <v>243338.4669861876</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.616632013457299e-06</v>
+        <v>4.25057199195976e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>165755.0560545464</v>
+        <v>220114.5852247798</v>
       </c>
     </row>
     <row r="10">
@@ -26374,28 +26374,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>133.653347270612</v>
+        <v>166.7222693064906</v>
       </c>
       <c r="AB10" t="n">
-        <v>182.8704061051076</v>
+        <v>228.1167641324503</v>
       </c>
       <c r="AC10" t="n">
-        <v>165.4175112067144</v>
+        <v>206.3456203276043</v>
       </c>
       <c r="AD10" t="n">
-        <v>133653.347270612</v>
+        <v>166722.2693064906</v>
       </c>
       <c r="AE10" t="n">
-        <v>182870.4061051076</v>
+        <v>228116.7641324503</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.637851154547944e-06</v>
+        <v>4.285041296909585e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>165417.5112067143</v>
+        <v>206345.6203276043</v>
       </c>
     </row>
     <row r="11">
@@ -26480,28 +26480,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>132.6470490937336</v>
+        <v>165.7159711296122</v>
       </c>
       <c r="AB11" t="n">
-        <v>181.4935445447609</v>
+        <v>226.7399025721037</v>
       </c>
       <c r="AC11" t="n">
-        <v>164.1720553812494</v>
+        <v>205.1001645021393</v>
       </c>
       <c r="AD11" t="n">
-        <v>132647.0490937336</v>
+        <v>165715.9711296122</v>
       </c>
       <c r="AE11" t="n">
-        <v>181493.5445447609</v>
+        <v>226739.9025721037</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.662892376953052e-06</v>
+        <v>4.325719358651615e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>164172.0553812494</v>
+        <v>205100.1645021393</v>
       </c>
     </row>
     <row r="12">
@@ -26586,28 +26586,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>130.8491856601145</v>
+        <v>163.9181076959931</v>
       </c>
       <c r="AB12" t="n">
-        <v>179.0336284787476</v>
+        <v>224.2799865060904</v>
       </c>
       <c r="AC12" t="n">
-        <v>161.9469102520617</v>
+        <v>202.8750193729516</v>
       </c>
       <c r="AD12" t="n">
-        <v>130849.1856601145</v>
+        <v>163918.1076959931</v>
       </c>
       <c r="AE12" t="n">
-        <v>179033.6284787476</v>
+        <v>224279.9865060904</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.718554181843003e-06</v>
+        <v>4.416138839751882e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.013888888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>161946.9102520617</v>
+        <v>202875.0193729516</v>
       </c>
     </row>
     <row r="13">
@@ -26692,28 +26692,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>118.820012384342</v>
+        <v>162.8264482328738</v>
       </c>
       <c r="AB13" t="n">
-        <v>162.5747829131732</v>
+        <v>222.7863298680347</v>
       </c>
       <c r="AC13" t="n">
-        <v>147.0588738071257</v>
+        <v>201.5239152280713</v>
       </c>
       <c r="AD13" t="n">
-        <v>118820.012384342</v>
+        <v>162826.4482328738</v>
       </c>
       <c r="AE13" t="n">
-        <v>162574.7829131731</v>
+        <v>222786.3298680347</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.743265914479623e-06</v>
+        <v>4.456281663839412e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH13" t="n">
-        <v>147058.8738071257</v>
+        <v>201523.9152280713</v>
       </c>
     </row>
     <row r="14">
@@ -26798,28 +26798,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>118.0067580573639</v>
+        <v>162.0131939058957</v>
       </c>
       <c r="AB14" t="n">
-        <v>161.4620524647536</v>
+        <v>221.6735994196152</v>
       </c>
       <c r="AC14" t="n">
-        <v>146.052340790976</v>
+        <v>200.5173822119216</v>
       </c>
       <c r="AD14" t="n">
-        <v>118006.7580573639</v>
+        <v>162013.1939058958</v>
       </c>
       <c r="AE14" t="n">
-        <v>161462.0524647536</v>
+        <v>221673.5994196152</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.767560293409491e-06</v>
+        <v>4.495746520231241e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>146052.340790976</v>
+        <v>200517.3822119216</v>
       </c>
     </row>
     <row r="15">
@@ -26904,28 +26904,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>116.967743274661</v>
+        <v>160.9741791231927</v>
       </c>
       <c r="AB15" t="n">
-        <v>160.040426600963</v>
+        <v>220.2519735558245</v>
       </c>
       <c r="AC15" t="n">
-        <v>144.7663929043606</v>
+        <v>199.2314343253063</v>
       </c>
       <c r="AD15" t="n">
-        <v>116967.743274661</v>
+        <v>160974.1791231927</v>
       </c>
       <c r="AE15" t="n">
-        <v>160040.426600963</v>
+        <v>220251.9735558245</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.796423597129064e-06</v>
+        <v>4.542633338765476e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>144766.3929043606</v>
+        <v>199231.4343253062</v>
       </c>
     </row>
     <row r="16">
@@ -27010,28 +27010,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>115.9925216636609</v>
+        <v>159.9989575121927</v>
       </c>
       <c r="AB16" t="n">
-        <v>158.7060853690524</v>
+        <v>218.9176323239139</v>
       </c>
       <c r="AC16" t="n">
-        <v>143.5593993268634</v>
+        <v>198.0244407478091</v>
       </c>
       <c r="AD16" t="n">
-        <v>115992.5216636609</v>
+        <v>159998.9575121927</v>
       </c>
       <c r="AE16" t="n">
-        <v>158706.0853690524</v>
+        <v>218917.6323239139</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.822277560963109e-06</v>
+        <v>4.584631653388607e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.753472222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>143559.3993268634</v>
+        <v>198024.440747809</v>
       </c>
     </row>
     <row r="17">
@@ -27116,28 +27116,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>115.3839405423281</v>
+        <v>159.3903763908599</v>
       </c>
       <c r="AB17" t="n">
-        <v>157.8733978301411</v>
+        <v>218.0849447850026</v>
       </c>
       <c r="AC17" t="n">
-        <v>142.8061823179813</v>
+        <v>197.2712237389269</v>
       </c>
       <c r="AD17" t="n">
-        <v>115383.9405423281</v>
+        <v>159390.3763908599</v>
       </c>
       <c r="AE17" t="n">
-        <v>157873.3978301411</v>
+        <v>218084.9447850026</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.827527431274356e-06</v>
+        <v>4.593159773350313e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.744791666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>142806.1823179813</v>
+        <v>197271.2237389269</v>
       </c>
     </row>
     <row r="18">
@@ -27222,28 +27222,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>114.3204822780354</v>
+        <v>158.3269181265672</v>
       </c>
       <c r="AB18" t="n">
-        <v>156.4183273164691</v>
+        <v>216.6298742713307</v>
       </c>
       <c r="AC18" t="n">
-        <v>141.4899816919294</v>
+        <v>195.955023112875</v>
       </c>
       <c r="AD18" t="n">
-        <v>114320.4822780354</v>
+        <v>158326.9181265672</v>
       </c>
       <c r="AE18" t="n">
-        <v>156418.3273164691</v>
+        <v>216629.8742713307</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.857884421944409e-06</v>
+        <v>4.64247300258495e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>141489.9816919294</v>
+        <v>195955.023112875</v>
       </c>
     </row>
     <row r="19">
@@ -27328,28 +27328,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>113.5665002466713</v>
+        <v>157.5729360952031</v>
       </c>
       <c r="AB19" t="n">
-        <v>155.3866958378177</v>
+        <v>215.5982427926792</v>
       </c>
       <c r="AC19" t="n">
-        <v>140.5568076736962</v>
+        <v>195.0218490946419</v>
       </c>
       <c r="AD19" t="n">
-        <v>113566.5002466713</v>
+        <v>157572.9360952031</v>
       </c>
       <c r="AE19" t="n">
-        <v>155386.6958378177</v>
+        <v>215598.2427926792</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.876072257164961e-06</v>
+        <v>4.672018121113372e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.631944444444445</v>
       </c>
       <c r="AH19" t="n">
-        <v>140556.8076736962</v>
+        <v>195021.8490946419</v>
       </c>
     </row>
     <row r="20">
@@ -27434,28 +27434,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>113.5964373931737</v>
+        <v>157.6028732417055</v>
       </c>
       <c r="AB20" t="n">
-        <v>155.4276571623959</v>
+        <v>215.6392041172575</v>
       </c>
       <c r="AC20" t="n">
-        <v>140.5938597069463</v>
+        <v>195.058901127892</v>
       </c>
       <c r="AD20" t="n">
-        <v>113596.4373931737</v>
+        <v>157602.8732417055</v>
       </c>
       <c r="AE20" t="n">
-        <v>155427.6571623959</v>
+        <v>215639.2041172575</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.875237549751457e-06</v>
+        <v>4.670662185721971e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.631944444444445</v>
       </c>
       <c r="AH20" t="n">
-        <v>140593.8597069463</v>
+        <v>195058.901127892</v>
       </c>
     </row>
     <row r="21">
@@ -27540,28 +27540,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>112.9714279581814</v>
+        <v>156.9778638067131</v>
       </c>
       <c r="AB21" t="n">
-        <v>154.5724916799696</v>
+        <v>214.7840386348311</v>
       </c>
       <c r="AC21" t="n">
-        <v>139.8203100179302</v>
+        <v>194.2853514388758</v>
       </c>
       <c r="AD21" t="n">
-        <v>112971.4279581813</v>
+        <v>156977.8638067131</v>
       </c>
       <c r="AE21" t="n">
-        <v>154572.4916799696</v>
+        <v>214784.0386348311</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.874293012415124e-06</v>
+        <v>4.66912783777907e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.631944444444445</v>
       </c>
       <c r="AH21" t="n">
-        <v>139820.3100179302</v>
+        <v>194285.3514388758</v>
       </c>
     </row>
     <row r="22">
@@ -27646,28 +27646,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>112.2322219410885</v>
+        <v>145.3863953229876</v>
       </c>
       <c r="AB22" t="n">
-        <v>153.5610773959158</v>
+        <v>198.9240800759077</v>
       </c>
       <c r="AC22" t="n">
-        <v>138.9054236936173</v>
+        <v>179.9390450652194</v>
       </c>
       <c r="AD22" t="n">
-        <v>112232.2219410885</v>
+        <v>145386.3953229876</v>
       </c>
       <c r="AE22" t="n">
-        <v>153561.0773959158</v>
+        <v>198924.0800759077</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.903310078026658e-06</v>
+        <v>4.716264433885406e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.571180555555555</v>
       </c>
       <c r="AH22" t="n">
-        <v>138905.4236936173</v>
+        <v>179939.0450652194</v>
       </c>
     </row>
     <row r="23">
@@ -27752,28 +27752,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>112.3049956798879</v>
+        <v>145.4591690617871</v>
       </c>
       <c r="AB23" t="n">
-        <v>153.6606496358918</v>
+        <v>199.0236523158839</v>
       </c>
       <c r="AC23" t="n">
-        <v>138.9954928987606</v>
+        <v>180.0291142703627</v>
       </c>
       <c r="AD23" t="n">
-        <v>112304.9956798879</v>
+        <v>145459.1690617871</v>
       </c>
       <c r="AE23" t="n">
-        <v>153660.6496358918</v>
+        <v>199023.6523158838</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.902343574705759e-06</v>
+        <v>4.714694403432204e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.571180555555555</v>
       </c>
       <c r="AH23" t="n">
-        <v>138995.4928987606</v>
+        <v>180029.1142703627</v>
       </c>
     </row>
   </sheetData>
@@ -28049,28 +28049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.46337300995508</v>
+        <v>137.6350391326427</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.7219308496045</v>
+        <v>188.3183325705827</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.8642588527717</v>
+        <v>170.3454952165391</v>
       </c>
       <c r="AD2" t="n">
-        <v>98463.37300995507</v>
+        <v>137635.0391326427</v>
       </c>
       <c r="AE2" t="n">
-        <v>134721.9308496045</v>
+        <v>188318.3325705827</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.184303142276062e-06</v>
+        <v>5.63963748066566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>121864.2588527717</v>
+        <v>170345.4952165391</v>
       </c>
     </row>
     <row r="3">
@@ -28155,28 +28155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.13146352598982</v>
+        <v>124.4889674129137</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.1630653001734</v>
+        <v>170.331297279906</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.7404850329689</v>
+        <v>154.0751173290363</v>
       </c>
       <c r="AD3" t="n">
-        <v>95131.46352598982</v>
+        <v>124488.9674129137</v>
       </c>
       <c r="AE3" t="n">
-        <v>130163.0653001734</v>
+        <v>170331.297279906</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.367109185398406e-06</v>
+        <v>5.963400566785674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.414930555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>117740.4850329689</v>
+        <v>154075.1173290363</v>
       </c>
     </row>
     <row r="4">
@@ -28261,28 +28261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.0064391934586</v>
+        <v>121.3639430803825</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.8872691420628</v>
+        <v>166.0555011217955</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.8727648590695</v>
+        <v>150.2073971551369</v>
       </c>
       <c r="AD4" t="n">
-        <v>92006.4391934586</v>
+        <v>121363.9430803825</v>
       </c>
       <c r="AE4" t="n">
-        <v>125887.2691420629</v>
+        <v>166055.5011217955</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.534963346115126e-06</v>
+        <v>6.260682758137299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>113872.7648590695</v>
+        <v>150207.3971551369</v>
       </c>
     </row>
     <row r="5">
@@ -28367,28 +28367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.5920580712877</v>
+        <v>120.9495619582116</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.320294609504</v>
+        <v>165.4885265892367</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.3599015801441</v>
+        <v>149.6945338762116</v>
       </c>
       <c r="AD5" t="n">
-        <v>91592.0580712877</v>
+        <v>120949.5619582116</v>
       </c>
       <c r="AE5" t="n">
-        <v>125320.294609504</v>
+        <v>165488.5265892367</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.542103429726465e-06</v>
+        <v>6.273328376770458e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH5" t="n">
-        <v>113359.9015801441</v>
+        <v>149694.5338762116</v>
       </c>
     </row>
     <row r="6">
@@ -28473,28 +28473,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.23508933302708</v>
+        <v>120.592593219951</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.8318742334668</v>
+        <v>165.0001062131994</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.9180953592934</v>
+        <v>149.2527276553609</v>
       </c>
       <c r="AD6" t="n">
-        <v>91235.08933302708</v>
+        <v>120592.593219951</v>
       </c>
       <c r="AE6" t="n">
-        <v>124831.8742334668</v>
+        <v>165000.1062131994</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.571061817613565e-06</v>
+        <v>6.32461583352654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.050347222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>112918.0953592934</v>
+        <v>149252.7276553609</v>
       </c>
     </row>
   </sheetData>
@@ -28770,28 +28770,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.684678854739</v>
+        <v>233.8575145150754</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.8525047375042</v>
+        <v>319.9741684247754</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.3886867415857</v>
+        <v>289.4362828769757</v>
       </c>
       <c r="AD2" t="n">
-        <v>179684.678854739</v>
+        <v>233857.5145150754</v>
       </c>
       <c r="AE2" t="n">
-        <v>245852.5047375042</v>
+        <v>319974.1684247754</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.007994374216292e-06</v>
+        <v>3.300171010558729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.670138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>222388.6867415857</v>
+        <v>289436.2828769757</v>
       </c>
     </row>
     <row r="3">
@@ -28876,28 +28876,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.2556849571415</v>
+        <v>211.3431797629063</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.1641657894512</v>
+        <v>289.1690623545247</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.6291997913709</v>
+        <v>261.571172894822</v>
       </c>
       <c r="AD3" t="n">
-        <v>157255.6849571416</v>
+        <v>211343.1797629063</v>
       </c>
       <c r="AE3" t="n">
-        <v>215164.1657894512</v>
+        <v>289169.0623545247</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.233392000025296e-06</v>
+        <v>3.67061562937593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>194629.1997913709</v>
+        <v>261571.172894822</v>
       </c>
     </row>
     <row r="4">
@@ -28982,28 +28982,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.365188837621</v>
+        <v>194.6182060198695</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.1045291283792</v>
+        <v>266.2852154255469</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.3387635414579</v>
+        <v>240.8713281990576</v>
       </c>
       <c r="AD4" t="n">
-        <v>151365.188837621</v>
+        <v>194618.2060198695</v>
       </c>
       <c r="AE4" t="n">
-        <v>207104.5291283792</v>
+        <v>266285.2154255469</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.379875845188245e-06</v>
+        <v>3.911364182025942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.159722222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>187338.7635414579</v>
+        <v>240871.3281990576</v>
       </c>
     </row>
     <row r="5">
@@ -29088,28 +29088,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.6001002519212</v>
+        <v>178.9383687801903</v>
       </c>
       <c r="AB5" t="n">
-        <v>185.5340394188135</v>
+        <v>244.8313703686304</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.8269310953939</v>
+        <v>221.4650080037058</v>
       </c>
       <c r="AD5" t="n">
-        <v>135600.1002519212</v>
+        <v>178938.3687801903</v>
       </c>
       <c r="AE5" t="n">
-        <v>185534.0394188135</v>
+        <v>244831.3703686304</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.513718270996213e-06</v>
+        <v>4.131336358893572e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.725694444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>167826.9310953939</v>
+        <v>221465.0080037058</v>
       </c>
     </row>
     <row r="6">
@@ -29194,28 +29194,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.839549040871</v>
+        <v>176.0072253685479</v>
       </c>
       <c r="AB6" t="n">
-        <v>181.7569314649324</v>
+        <v>240.8208506399025</v>
       </c>
       <c r="AC6" t="n">
-        <v>164.4103050234257</v>
+        <v>217.8372466490866</v>
       </c>
       <c r="AD6" t="n">
-        <v>132839.549040871</v>
+        <v>176007.225368548</v>
       </c>
       <c r="AE6" t="n">
-        <v>181756.9314649325</v>
+        <v>240820.8506399025</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.595853935513273e-06</v>
+        <v>4.266327642959281e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>164410.3050234257</v>
+        <v>217837.2466490866</v>
       </c>
     </row>
     <row r="7">
@@ -29300,28 +29300,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.7459139490501</v>
+        <v>173.913590276727</v>
       </c>
       <c r="AB7" t="n">
-        <v>178.892327567643</v>
+        <v>237.9562467426131</v>
       </c>
       <c r="AC7" t="n">
-        <v>161.8190949015959</v>
+        <v>215.2460365272568</v>
       </c>
       <c r="AD7" t="n">
-        <v>130745.9139490501</v>
+        <v>173913.590276727</v>
       </c>
       <c r="AE7" t="n">
-        <v>178892.327567643</v>
+        <v>237956.2467426131</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.661208954868851e-06</v>
+        <v>4.373739667136871e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.300347222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>161819.0949015958</v>
+        <v>215246.0365272568</v>
       </c>
     </row>
     <row r="8">
@@ -29406,28 +29406,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>128.0544490814547</v>
+        <v>160.5582399862076</v>
       </c>
       <c r="AB8" t="n">
-        <v>175.209746596751</v>
+        <v>219.6828672786621</v>
       </c>
       <c r="AC8" t="n">
-        <v>158.4879742900298</v>
+        <v>198.7166427524903</v>
       </c>
       <c r="AD8" t="n">
-        <v>128054.4490814547</v>
+        <v>160558.2399862076</v>
       </c>
       <c r="AE8" t="n">
-        <v>175209.746596751</v>
+        <v>219682.8672786621</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.743814477450432e-06</v>
+        <v>4.509503170479447e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.074652777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>158487.9742900298</v>
+        <v>198716.6427524903</v>
       </c>
     </row>
     <row r="9">
@@ -29512,28 +29512,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>127.9277608750297</v>
+        <v>160.4315517797826</v>
       </c>
       <c r="AB9" t="n">
-        <v>175.0364062036313</v>
+        <v>219.5095268855424</v>
       </c>
       <c r="AC9" t="n">
-        <v>158.3311772607446</v>
+        <v>198.5598457232051</v>
       </c>
       <c r="AD9" t="n">
-        <v>127927.7608750298</v>
+        <v>160431.5517797826</v>
       </c>
       <c r="AE9" t="n">
-        <v>175036.4062036313</v>
+        <v>219509.5268855424</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.759789651644161e-06</v>
+        <v>4.535758625892936e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.039930555555554</v>
       </c>
       <c r="AH9" t="n">
-        <v>158331.1772607446</v>
+        <v>198559.8457232051</v>
       </c>
     </row>
     <row r="10">
@@ -29618,28 +29618,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>115.083718914362</v>
+        <v>158.3366465880595</v>
       </c>
       <c r="AB10" t="n">
-        <v>157.4626213539146</v>
+        <v>216.6431851815339</v>
       </c>
       <c r="AC10" t="n">
-        <v>142.4346097721173</v>
+        <v>195.9670636484904</v>
       </c>
       <c r="AD10" t="n">
-        <v>115083.718914362</v>
+        <v>158336.6465880595</v>
       </c>
       <c r="AE10" t="n">
-        <v>157462.6213539146</v>
+        <v>216643.1851815339</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.819484000031934e-06</v>
+        <v>4.633867246401601e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>142434.6097721173</v>
+        <v>195967.0636484904</v>
       </c>
     </row>
     <row r="11">
@@ -29724,28 +29724,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>114.2423631582992</v>
+        <v>157.4952908319967</v>
       </c>
       <c r="AB11" t="n">
-        <v>156.3114412904738</v>
+        <v>215.492005118093</v>
       </c>
       <c r="AC11" t="n">
-        <v>141.3932967182395</v>
+        <v>194.9257505946127</v>
       </c>
       <c r="AD11" t="n">
-        <v>114242.3631582992</v>
+        <v>157495.2908319967</v>
       </c>
       <c r="AE11" t="n">
-        <v>156311.4412904738</v>
+        <v>215492.005118093</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.843178270999944e-06</v>
+        <v>4.672809161363624e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>141393.2967182395</v>
+        <v>194925.7505946126</v>
       </c>
     </row>
     <row r="12">
@@ -29830,28 +29830,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>113.2054004282957</v>
+        <v>156.4583281019932</v>
       </c>
       <c r="AB12" t="n">
-        <v>154.8926231357167</v>
+        <v>214.073186963336</v>
       </c>
       <c r="AC12" t="n">
-        <v>140.1098885768482</v>
+        <v>193.6423424532214</v>
       </c>
       <c r="AD12" t="n">
-        <v>113205.4004282957</v>
+        <v>156458.3281019932</v>
       </c>
       <c r="AE12" t="n">
-        <v>154892.6231357167</v>
+        <v>214073.186963336</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.869400825838951e-06</v>
+        <v>4.715906351482123e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>140109.8885768483</v>
+        <v>193642.3424532214</v>
       </c>
     </row>
     <row r="13">
@@ -29936,28 +29936,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>111.807967784882</v>
+        <v>155.0608954585795</v>
       </c>
       <c r="AB13" t="n">
-        <v>152.980594142622</v>
+        <v>212.1611579702412</v>
       </c>
       <c r="AC13" t="n">
-        <v>138.3803409473043</v>
+        <v>191.9127948236774</v>
       </c>
       <c r="AD13" t="n">
-        <v>111807.967784882</v>
+        <v>155060.8954585795</v>
       </c>
       <c r="AE13" t="n">
-        <v>152980.594142622</v>
+        <v>212161.1579702412</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.921868309710514e-06</v>
+        <v>4.80213750406564e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>138380.3409473043</v>
+        <v>191912.7948236774</v>
       </c>
     </row>
     <row r="14">
@@ -30042,28 +30042,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>111.2321220167671</v>
+        <v>154.4850496904646</v>
       </c>
       <c r="AB14" t="n">
-        <v>152.1926965581651</v>
+        <v>211.3732603857844</v>
       </c>
       <c r="AC14" t="n">
-        <v>137.6676392024866</v>
+        <v>191.2000930788597</v>
       </c>
       <c r="AD14" t="n">
-        <v>111232.1220167671</v>
+        <v>154485.0496904646</v>
       </c>
       <c r="AE14" t="n">
-        <v>152192.6965581651</v>
+        <v>211373.2603857844</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.922830400033105e-06</v>
+        <v>4.803718714965891e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>137667.6392024866</v>
+        <v>191200.0930788597</v>
       </c>
     </row>
     <row r="15">
@@ -30148,28 +30148,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>110.1778605652441</v>
+        <v>142.7669028160176</v>
       </c>
       <c r="AB15" t="n">
-        <v>150.7502095294595</v>
+        <v>195.3399748640197</v>
       </c>
       <c r="AC15" t="n">
-        <v>136.3628211112568</v>
+        <v>176.6970018244296</v>
       </c>
       <c r="AD15" t="n">
-        <v>110177.8605652441</v>
+        <v>142766.9028160176</v>
       </c>
       <c r="AE15" t="n">
-        <v>150750.2095294594</v>
+        <v>195339.9748640197</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.955429600033474e-06</v>
+        <v>4.857296023841875e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.571180555555555</v>
       </c>
       <c r="AH15" t="n">
-        <v>136362.8211112568</v>
+        <v>176697.0018244296</v>
       </c>
     </row>
     <row r="16">
@@ -30254,28 +30254,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>109.2876916591818</v>
+        <v>141.8767339099552</v>
       </c>
       <c r="AB16" t="n">
-        <v>149.532241160705</v>
+        <v>194.1220064952653</v>
       </c>
       <c r="AC16" t="n">
-        <v>135.2610939341866</v>
+        <v>175.5952746473594</v>
       </c>
       <c r="AD16" t="n">
-        <v>109287.6916591818</v>
+        <v>141876.7339099552</v>
       </c>
       <c r="AE16" t="n">
-        <v>149532.241160705</v>
+        <v>194122.0064952653</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.980242580678917e-06</v>
+        <v>4.898076556129774e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.519097222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>135261.0939341866</v>
+        <v>175595.2746473594</v>
       </c>
     </row>
     <row r="17">
@@ -30360,28 +30360,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>108.3676853378059</v>
+        <v>140.7861353879871</v>
       </c>
       <c r="AB17" t="n">
-        <v>148.2734479239849</v>
+        <v>192.6298014836983</v>
       </c>
       <c r="AC17" t="n">
-        <v>134.1224381572512</v>
+        <v>174.2454835877729</v>
       </c>
       <c r="AD17" t="n">
-        <v>108367.6853378059</v>
+        <v>140786.1353879871</v>
       </c>
       <c r="AE17" t="n">
-        <v>148273.4479239849</v>
+        <v>192629.8014836983</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.004473832292094e-06</v>
+        <v>4.937901007408215e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.467013888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>134122.4381572512</v>
+        <v>174245.4835877729</v>
       </c>
     </row>
     <row r="18">
@@ -30466,28 +30466,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>108.4833632312438</v>
+        <v>140.9018132814251</v>
       </c>
       <c r="AB18" t="n">
-        <v>148.4317235211351</v>
+        <v>192.7880770808485</v>
       </c>
       <c r="AC18" t="n">
-        <v>134.2656081535507</v>
+        <v>174.3886535840724</v>
       </c>
       <c r="AD18" t="n">
-        <v>108483.3632312438</v>
+        <v>140901.8132814251</v>
       </c>
       <c r="AE18" t="n">
-        <v>148431.7235211351</v>
+        <v>192788.0770808485</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.000893961324311e-06</v>
+        <v>4.932017431965417e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.475694444444445</v>
       </c>
       <c r="AH18" t="n">
-        <v>134265.6081535507</v>
+        <v>174388.6535840724</v>
       </c>
     </row>
     <row r="19">
@@ -30572,28 +30572,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>108.4221578356695</v>
+        <v>140.8406078858508</v>
       </c>
       <c r="AB19" t="n">
-        <v>148.3479795987188</v>
+        <v>192.7043331584322</v>
       </c>
       <c r="AC19" t="n">
-        <v>134.1898566335545</v>
+        <v>174.3129020640762</v>
       </c>
       <c r="AD19" t="n">
-        <v>108422.1578356695</v>
+        <v>140840.6078858508</v>
       </c>
       <c r="AE19" t="n">
-        <v>148347.9795987188</v>
+        <v>192704.3331584322</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.002124541969487e-06</v>
+        <v>4.934039911023878e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.467013888888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>134189.8566335544</v>
+        <v>174312.9020640762</v>
       </c>
     </row>
   </sheetData>
@@ -30869,28 +30869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.7887058953978</v>
+        <v>144.7953704854253</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.0589715263121</v>
+        <v>198.1154138189798</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.0694837175349</v>
+        <v>179.2075567808821</v>
       </c>
       <c r="AD2" t="n">
-        <v>114788.7058953978</v>
+        <v>144795.3704854253</v>
       </c>
       <c r="AE2" t="n">
-        <v>157058.9715263121</v>
+        <v>198115.4138189798</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.96051607942571e-06</v>
+        <v>5.162881532609893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.144097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>142069.4837175349</v>
+        <v>179207.5567808821</v>
       </c>
     </row>
     <row r="3">
@@ -30975,28 +30975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.8415072445738</v>
+        <v>140.7649331653042</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.975799025286</v>
+        <v>192.6007916672474</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.8075824165999</v>
+        <v>174.2192424274886</v>
       </c>
       <c r="AD3" t="n">
-        <v>100841.5072445738</v>
+        <v>140764.9331653042</v>
       </c>
       <c r="AE3" t="n">
-        <v>137975.799025286</v>
+        <v>192600.7916672474</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.139190816667198e-06</v>
+        <v>5.474474672623154e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.736111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>124807.5824165999</v>
+        <v>174219.2424274886</v>
       </c>
     </row>
     <row r="4">
@@ -31081,28 +31081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.26483577085195</v>
+        <v>128.1861595063079</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.4502834402189</v>
+        <v>175.389958610689</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.6185370908783</v>
+        <v>158.6509871222867</v>
       </c>
       <c r="AD4" t="n">
-        <v>98264.83577085195</v>
+        <v>128186.1595063079</v>
       </c>
       <c r="AE4" t="n">
-        <v>134450.2834402189</v>
+        <v>175389.9586106889</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.267529492189222e-06</v>
+        <v>5.698286116302528e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.475694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>121618.5370908783</v>
+        <v>158650.9871222867</v>
       </c>
     </row>
     <row r="5">
@@ -31187,28 +31187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.84077074099044</v>
+        <v>125.7620944764464</v>
       </c>
       <c r="AB5" t="n">
-        <v>131.1335707241625</v>
+        <v>172.0732458946326</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.6183667814057</v>
+        <v>155.6508168128141</v>
       </c>
       <c r="AD5" t="n">
-        <v>95840.77074099044</v>
+        <v>125762.0944764464</v>
       </c>
       <c r="AE5" t="n">
-        <v>131133.5707241625</v>
+        <v>172073.2458946326</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.38762914162835e-06</v>
+        <v>5.907729417918536e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>118618.3667814057</v>
+        <v>155650.8168128141</v>
       </c>
     </row>
     <row r="6">
@@ -31293,28 +31293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>94.38480232684262</v>
+        <v>124.3061260622986</v>
       </c>
       <c r="AB6" t="n">
-        <v>129.1414505071334</v>
+        <v>170.0811256776034</v>
       </c>
       <c r="AC6" t="n">
-        <v>116.8163717219309</v>
+        <v>153.8488217533393</v>
       </c>
       <c r="AD6" t="n">
-        <v>94384.80232684262</v>
+        <v>124306.1260622986</v>
       </c>
       <c r="AE6" t="n">
-        <v>129141.4505071334</v>
+        <v>170081.1256776034</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.451859418931395e-06</v>
+        <v>6.019741412998335e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.128472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>116816.3717219309</v>
+        <v>153848.8217533393</v>
       </c>
     </row>
     <row r="7">
@@ -31399,28 +31399,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>93.97623324089921</v>
+        <v>123.8975569763552</v>
       </c>
       <c r="AB7" t="n">
-        <v>128.5824282589499</v>
+        <v>169.52210342942</v>
       </c>
       <c r="AC7" t="n">
-        <v>116.3107017725213</v>
+        <v>153.3431518039297</v>
       </c>
       <c r="AD7" t="n">
-        <v>93976.23324089921</v>
+        <v>123897.5569763552</v>
       </c>
       <c r="AE7" t="n">
-        <v>128582.4282589499</v>
+        <v>169522.10342942</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.470555670427196e-06</v>
+        <v>6.052346043065209e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH7" t="n">
-        <v>116310.7017725213</v>
+        <v>153343.1518039297</v>
       </c>
     </row>
     <row r="8">
@@ -31505,28 +31505,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>93.95998044881922</v>
+        <v>123.8813041842752</v>
       </c>
       <c r="AB8" t="n">
-        <v>128.5601904718035</v>
+        <v>169.4998656422736</v>
       </c>
       <c r="AC8" t="n">
-        <v>116.2905863285692</v>
+        <v>153.3230363599776</v>
       </c>
       <c r="AD8" t="n">
-        <v>93959.98044881922</v>
+        <v>123881.3041842752</v>
       </c>
       <c r="AE8" t="n">
-        <v>128560.1904718035</v>
+        <v>169499.8656422736</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.471920716168741e-06</v>
+        <v>6.054726563643754e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH8" t="n">
-        <v>116290.5863285692</v>
+        <v>153323.0363599776</v>
       </c>
     </row>
   </sheetData>
@@ -31802,28 +31802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.8843323289839</v>
+        <v>180.4007772390868</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.3452294678849</v>
+        <v>246.8323021389994</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.5150882696032</v>
+        <v>223.2749736542368</v>
       </c>
       <c r="AD2" t="n">
-        <v>128884.3323289839</v>
+        <v>180400.7772390868</v>
       </c>
       <c r="AE2" t="n">
-        <v>176345.2294678849</v>
+        <v>246832.3021389994</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.554398897193774e-06</v>
+        <v>4.342308828920591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.994791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>159515.0882696032</v>
+        <v>223274.9736542368</v>
       </c>
     </row>
     <row r="3">
@@ -31908,28 +31908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.8111582675361</v>
+        <v>163.9902673623408</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.0356447874861</v>
+        <v>224.378718545047</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.9985586885236</v>
+        <v>202.9643285646816</v>
       </c>
       <c r="AD3" t="n">
-        <v>122811.1582675361</v>
+        <v>163990.2673623408</v>
       </c>
       <c r="AE3" t="n">
-        <v>168035.6447874861</v>
+        <v>224378.718545047</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.765940055589151e-06</v>
+        <v>4.701914778010794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>151998.5586885237</v>
+        <v>202964.3285646816</v>
       </c>
     </row>
     <row r="4">
@@ -32014,28 +32014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.2271362987811</v>
+        <v>150.2395017788798</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.1318278139479</v>
+        <v>205.5643144328022</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.5627551243881</v>
+        <v>185.9455447747214</v>
       </c>
       <c r="AD4" t="n">
-        <v>119227.1362987811</v>
+        <v>150239.5017788798</v>
       </c>
       <c r="AE4" t="n">
-        <v>163131.8278139479</v>
+        <v>205564.3144328022</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.906308707684225e-06</v>
+        <v>4.940532183446467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>147562.7551243881</v>
+        <v>185945.5447747214</v>
       </c>
     </row>
     <row r="5">
@@ -32120,28 +32120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.2226752621058</v>
+        <v>147.4870357029311</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.3385505072477</v>
+        <v>201.7982689174579</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.4676432308121</v>
+        <v>182.5389253576823</v>
       </c>
       <c r="AD5" t="n">
-        <v>106222.6752621058</v>
+        <v>147487.0357029311</v>
       </c>
       <c r="AE5" t="n">
-        <v>145338.5505072477</v>
+        <v>201798.2689174579</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.013855658526764e-06</v>
+        <v>5.123354872056333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>131467.6432308121</v>
+        <v>182538.9253576823</v>
       </c>
     </row>
     <row r="6">
@@ -32226,28 +32226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.4292006024552</v>
+        <v>134.5268174285745</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.5163952385115</v>
+        <v>184.065526510015</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.0102690964943</v>
+        <v>166.4985709975398</v>
       </c>
       <c r="AD6" t="n">
-        <v>103429.2006024552</v>
+        <v>134526.8174285745</v>
       </c>
       <c r="AE6" t="n">
-        <v>141516.3952385115</v>
+        <v>184065.526510015</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.131284411896948e-06</v>
+        <v>5.322975970033111e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.519097222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>128010.2690964943</v>
+        <v>166498.5709975398</v>
       </c>
     </row>
     <row r="7">
@@ -32332,28 +32332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>103.1613078048714</v>
+        <v>134.2589246309907</v>
       </c>
       <c r="AB7" t="n">
-        <v>141.1498524942614</v>
+        <v>183.6989837657649</v>
       </c>
       <c r="AC7" t="n">
-        <v>127.6787086773093</v>
+        <v>166.1670105783549</v>
       </c>
       <c r="AD7" t="n">
-        <v>103161.3078048714</v>
+        <v>134258.9246309907</v>
       </c>
       <c r="AE7" t="n">
-        <v>141149.8524942614</v>
+        <v>183698.9837657649</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.141966169867308e-06</v>
+        <v>5.341134250634485e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.501736111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>127678.7086773093</v>
+        <v>166167.0105783549</v>
       </c>
     </row>
     <row r="8">
@@ -32438,28 +32438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.6398745731967</v>
+        <v>132.5668991987237</v>
       </c>
       <c r="AB8" t="n">
-        <v>139.068160425788</v>
+        <v>181.3838799224446</v>
       </c>
       <c r="AC8" t="n">
-        <v>125.7956903781772</v>
+        <v>164.0728569965717</v>
       </c>
       <c r="AD8" t="n">
-        <v>101639.8745731967</v>
+        <v>132566.8991987238</v>
       </c>
       <c r="AE8" t="n">
-        <v>139068.160425788</v>
+        <v>181383.8799224446</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.196998398705789e-06</v>
+        <v>5.43468539232306e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>125795.6903781772</v>
+        <v>164072.8569965717</v>
       </c>
     </row>
     <row r="9">
@@ -32544,28 +32544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>100.3183064752769</v>
+        <v>131.245331100804</v>
       </c>
       <c r="AB9" t="n">
-        <v>137.2599326507454</v>
+        <v>179.575652147402</v>
       </c>
       <c r="AC9" t="n">
-        <v>124.1600373241205</v>
+        <v>162.437203942515</v>
       </c>
       <c r="AD9" t="n">
-        <v>100318.3064752769</v>
+        <v>131245.3311008039</v>
       </c>
       <c r="AE9" t="n">
-        <v>137259.9326507454</v>
+        <v>179575.652147402</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.248124962735725e-06</v>
+        <v>5.521597162690429e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.284722222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>124160.0373241205</v>
+        <v>162437.203942515</v>
       </c>
     </row>
     <row r="10">
@@ -32650,28 +32650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>99.48682412147089</v>
+        <v>130.413848746998</v>
       </c>
       <c r="AB10" t="n">
-        <v>136.1222618118561</v>
+        <v>178.4379813085127</v>
       </c>
       <c r="AC10" t="n">
-        <v>123.1309441933634</v>
+        <v>161.4081108117579</v>
       </c>
       <c r="AD10" t="n">
-        <v>99486.82412147088</v>
+        <v>130413.848746998</v>
       </c>
       <c r="AE10" t="n">
-        <v>136122.2618118561</v>
+        <v>178437.9813085127</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.273229446776195e-06</v>
+        <v>5.564273121724935e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.241319444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>123130.9441933634</v>
+        <v>161408.1108117579</v>
       </c>
     </row>
     <row r="11">
@@ -32756,28 +32756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>99.37040362447205</v>
+        <v>130.2974282499991</v>
       </c>
       <c r="AB11" t="n">
-        <v>135.9629701517526</v>
+        <v>178.2786896484091</v>
       </c>
       <c r="AC11" t="n">
-        <v>122.9868551057328</v>
+        <v>161.2640217241273</v>
       </c>
       <c r="AD11" t="n">
-        <v>99370.40362447205</v>
+        <v>130297.4282499991</v>
       </c>
       <c r="AE11" t="n">
-        <v>135962.9701517526</v>
+        <v>178278.6896484091</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.272594188042274e-06</v>
+        <v>5.563193223979918e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.241319444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>122986.8551057328</v>
+        <v>161264.0217241273</v>
       </c>
     </row>
   </sheetData>
@@ -33053,28 +33053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.12540089193843</v>
+        <v>120.8645886293794</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.0500377861426</v>
+        <v>165.3722623319699</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.0199990922055</v>
+        <v>149.5893657164804</v>
       </c>
       <c r="AD2" t="n">
-        <v>92125.40089193842</v>
+        <v>120864.5886293794</v>
       </c>
       <c r="AE2" t="n">
-        <v>126050.0377861426</v>
+        <v>165372.2623319699</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.447590825999525e-06</v>
+        <v>6.216822096971859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>114019.9990922055</v>
+        <v>149589.3657164804</v>
       </c>
     </row>
     <row r="3">
@@ -33159,28 +33159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.21038537049196</v>
+        <v>117.949573107933</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.061584948293</v>
+        <v>161.3838094941203</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.4121985953703</v>
+        <v>145.9815652196451</v>
       </c>
       <c r="AD3" t="n">
-        <v>89210.38537049196</v>
+        <v>117949.573107933</v>
       </c>
       <c r="AE3" t="n">
-        <v>122061.584948293</v>
+        <v>161383.8094941203</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.623603898182231e-06</v>
+        <v>6.534215317840554e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>110412.1985953703</v>
+        <v>145981.5652196452</v>
       </c>
     </row>
     <row r="4">
@@ -33265,28 +33265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.74635095048272</v>
+        <v>117.4855386879237</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.4266725830829</v>
+        <v>160.7488971289102</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.8378813751905</v>
+        <v>145.4072479994654</v>
       </c>
       <c r="AD4" t="n">
-        <v>88746.35095048272</v>
+        <v>117485.5386879237</v>
       </c>
       <c r="AE4" t="n">
-        <v>121426.6725830829</v>
+        <v>160748.8971289102</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.644501473346656e-06</v>
+        <v>6.571898591062997e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.059027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>109837.8813751905</v>
+        <v>145407.2479994654</v>
       </c>
     </row>
   </sheetData>
@@ -33562,28 +33562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.17605132268191</v>
+        <v>111.8459614750897</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.1733870049395</v>
+        <v>153.0325787857274</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.1814005960817</v>
+        <v>138.4273642490326</v>
       </c>
       <c r="AD2" t="n">
-        <v>84176.05132268192</v>
+        <v>111845.9614750897</v>
       </c>
       <c r="AE2" t="n">
-        <v>115173.3870049395</v>
+        <v>153032.5787857274</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.780878002846214e-06</v>
+        <v>7.053909823114579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.085069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>104181.4005960817</v>
+        <v>138427.3642490327</v>
       </c>
     </row>
   </sheetData>
@@ -58760,28 +58760,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.1096986278746</v>
+        <v>228.7836481065161</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.5928149572287</v>
+        <v>313.0318805614002</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.7264129684079</v>
+        <v>283.1565572237165</v>
       </c>
       <c r="AD2" t="n">
-        <v>175109.6986278747</v>
+        <v>228783.6481065161</v>
       </c>
       <c r="AE2" t="n">
-        <v>239592.8149572287</v>
+        <v>313031.8805614001</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.074368107637856e-06</v>
+        <v>3.423620934455495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>216726.4129684079</v>
+        <v>283156.5572237165</v>
       </c>
     </row>
     <row r="3">
@@ -58866,28 +58866,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.0219009754734</v>
+        <v>197.182875173432</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.7395598812546</v>
+        <v>269.7943089066669</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.6268720610778</v>
+        <v>244.0455187233843</v>
       </c>
       <c r="AD3" t="n">
-        <v>154021.9009754734</v>
+        <v>197182.875173432</v>
       </c>
       <c r="AE3" t="n">
-        <v>210739.5598812546</v>
+        <v>269794.3089066669</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.290628279359741e-06</v>
+        <v>3.780545459311931e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.532986111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>190626.8720610778</v>
+        <v>244045.5187233843</v>
       </c>
     </row>
     <row r="4">
@@ -58972,28 +58972,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.354870716314</v>
+        <v>190.0287306864045</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.5667496663181</v>
+        <v>260.0056928009412</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.761080926295</v>
+        <v>235.191114400377</v>
       </c>
       <c r="AD4" t="n">
-        <v>136354.870716314</v>
+        <v>190028.7306864045</v>
       </c>
       <c r="AE4" t="n">
-        <v>186566.7496663181</v>
+        <v>260005.6928009412</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.466757697566225e-06</v>
+        <v>4.071236567184699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.925347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>168761.080926295</v>
+        <v>235191.114400377</v>
       </c>
     </row>
     <row r="5">
@@ -59078,28 +59078,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.7143356990723</v>
+        <v>175.7899690424592</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.5856090466607</v>
+        <v>240.5235909498754</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.2553333763013</v>
+        <v>217.568357006669</v>
       </c>
       <c r="AD5" t="n">
-        <v>132714.3356990723</v>
+        <v>175789.9690424592</v>
       </c>
       <c r="AE5" t="n">
-        <v>181585.6090466607</v>
+        <v>240523.5909498754</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.578952654925221e-06</v>
+        <v>4.256407657764182e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>164255.3333763013</v>
+        <v>217568.357006669</v>
       </c>
     </row>
     <row r="6">
@@ -59184,28 +59184,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>130.226656734881</v>
+        <v>173.1316978776757</v>
       </c>
       <c r="AB6" t="n">
-        <v>178.1818569392057</v>
+        <v>236.8864270675735</v>
       </c>
       <c r="AC6" t="n">
-        <v>161.1764305927846</v>
+        <v>214.2783189405013</v>
       </c>
       <c r="AD6" t="n">
-        <v>130226.656734881</v>
+        <v>173131.6978776758</v>
       </c>
       <c r="AE6" t="n">
-        <v>178181.8569392057</v>
+        <v>236886.4270675735</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.659844723739655e-06</v>
+        <v>4.389915196375483e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.352430555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>161176.4305927846</v>
+        <v>214278.3189405013</v>
       </c>
     </row>
     <row r="7">
@@ -59290,28 +59290,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.096025721089</v>
+        <v>160.4028402371803</v>
       </c>
       <c r="AB7" t="n">
-        <v>175.2666335893306</v>
+        <v>219.4702424862899</v>
       </c>
       <c r="AC7" t="n">
-        <v>158.5394320678789</v>
+        <v>198.5243105718813</v>
       </c>
       <c r="AD7" t="n">
-        <v>128096.025721089</v>
+        <v>160402.8402371803</v>
       </c>
       <c r="AE7" t="n">
-        <v>175266.6335893306</v>
+        <v>219470.2424862899</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.728868718983598e-06</v>
+        <v>4.503835186866472e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>158539.432067879</v>
+        <v>198524.3105718813</v>
       </c>
     </row>
     <row r="8">
@@ -59396,28 +59396,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>114.2610426641339</v>
+        <v>157.2513351529492</v>
       </c>
       <c r="AB8" t="n">
-        <v>156.3369994144385</v>
+        <v>215.1582141954555</v>
       </c>
       <c r="AC8" t="n">
-        <v>141.4164156107241</v>
+        <v>194.623816209153</v>
       </c>
       <c r="AD8" t="n">
-        <v>114261.0426641339</v>
+        <v>157251.3351529492</v>
       </c>
       <c r="AE8" t="n">
-        <v>156336.9994144384</v>
+        <v>215158.2141954555</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.821966662324041e-06</v>
+        <v>4.657487793943064e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>141416.4156107241</v>
+        <v>194623.816209153</v>
       </c>
     </row>
     <row r="9">
@@ -59502,28 +59502,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>114.0312897491204</v>
+        <v>157.0215822379357</v>
       </c>
       <c r="AB9" t="n">
-        <v>156.0226413401339</v>
+        <v>214.8438561211509</v>
       </c>
       <c r="AC9" t="n">
-        <v>141.1320594298267</v>
+        <v>194.3394600282556</v>
       </c>
       <c r="AD9" t="n">
-        <v>114031.2897491204</v>
+        <v>157021.5822379357</v>
       </c>
       <c r="AE9" t="n">
-        <v>156022.6413401339</v>
+        <v>214843.8561211509</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.838969310418389e-06</v>
+        <v>4.685549651307077e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.883680555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>141132.0594298267</v>
+        <v>194339.4600282556</v>
       </c>
     </row>
     <row r="10">
@@ -59608,28 +59608,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>113.2586663822642</v>
+        <v>156.2489588710795</v>
       </c>
       <c r="AB10" t="n">
-        <v>154.9655039638644</v>
+        <v>213.7867187448815</v>
       </c>
       <c r="AC10" t="n">
-        <v>140.1758137610464</v>
+        <v>193.3832143594753</v>
       </c>
       <c r="AD10" t="n">
-        <v>113258.6663822642</v>
+        <v>156248.9588710795</v>
       </c>
       <c r="AE10" t="n">
-        <v>154965.5039638644</v>
+        <v>213786.7187448815</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.860701171889973e-06</v>
+        <v>4.721416793500814e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>140175.8137610464</v>
+        <v>193383.2143594754</v>
       </c>
     </row>
     <row r="11">
@@ -59714,28 +59714,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>111.7396283049128</v>
+        <v>154.7299207937281</v>
       </c>
       <c r="AB11" t="n">
-        <v>152.887089051203</v>
+        <v>211.70830383222</v>
       </c>
       <c r="AC11" t="n">
-        <v>138.2957598505751</v>
+        <v>191.503160449004</v>
       </c>
       <c r="AD11" t="n">
-        <v>111739.6283049128</v>
+        <v>154729.9207937281</v>
       </c>
       <c r="AE11" t="n">
-        <v>152887.089051203</v>
+        <v>211708.30383222</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.91438900375345e-06</v>
+        <v>4.810025360329695e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.710069444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>138295.7598505751</v>
+        <v>191503.160449004</v>
       </c>
     </row>
     <row r="12">
@@ -59820,28 +59820,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>110.8501155223647</v>
+        <v>153.84040801118</v>
       </c>
       <c r="AB12" t="n">
-        <v>151.670018419587</v>
+        <v>210.491233200604</v>
       </c>
       <c r="AC12" t="n">
-        <v>137.1948447318708</v>
+        <v>190.4022453302997</v>
       </c>
       <c r="AD12" t="n">
-        <v>110850.1155223648</v>
+        <v>153840.4080111801</v>
       </c>
       <c r="AE12" t="n">
-        <v>151670.018419587</v>
+        <v>210491.233200604</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.940287077009742e-06</v>
+        <v>4.852768586778191e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>137194.8447318708</v>
+        <v>190402.2453302997</v>
       </c>
     </row>
     <row r="13">
@@ -59926,28 +59926,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>109.8557531423269</v>
+        <v>142.2478190044386</v>
       </c>
       <c r="AB13" t="n">
-        <v>150.3094879430477</v>
+        <v>194.6297414926563</v>
       </c>
       <c r="AC13" t="n">
-        <v>135.9641613744955</v>
+        <v>176.0545521292101</v>
       </c>
       <c r="AD13" t="n">
-        <v>109855.7531423269</v>
+        <v>142247.8190044386</v>
       </c>
       <c r="AE13" t="n">
-        <v>150309.4879430477</v>
+        <v>194629.7414926563</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.968707397400559e-06</v>
+        <v>4.89967463180254e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>135964.1613744955</v>
+        <v>176054.5521292101</v>
       </c>
     </row>
     <row r="14">
@@ -60032,28 +60032,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>108.7775707527185</v>
+        <v>141.1696366148303</v>
       </c>
       <c r="AB14" t="n">
-        <v>148.8342712315363</v>
+        <v>193.1545247811449</v>
       </c>
       <c r="AC14" t="n">
-        <v>134.6297372754505</v>
+        <v>174.7201280301652</v>
       </c>
       <c r="AD14" t="n">
-        <v>108777.5707527185</v>
+        <v>141169.6366148303</v>
       </c>
       <c r="AE14" t="n">
-        <v>148834.2712315363</v>
+        <v>193154.5247811449</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.997352918428388e-06</v>
+        <v>4.946952357056875e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.519097222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>134629.7372754505</v>
+        <v>174720.1280301652</v>
       </c>
     </row>
     <row r="15">
@@ -60138,28 +60138,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>107.3474469552551</v>
+        <v>139.5689206167747</v>
       </c>
       <c r="AB15" t="n">
-        <v>146.8775127592388</v>
+        <v>190.9643545340005</v>
       </c>
       <c r="AC15" t="n">
-        <v>132.8597290854207</v>
+        <v>172.7389845574843</v>
       </c>
       <c r="AD15" t="n">
-        <v>107347.4469552551</v>
+        <v>139568.9206167747</v>
       </c>
       <c r="AE15" t="n">
-        <v>146877.5127592388</v>
+        <v>190964.3545340005</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.036875630223859e-06</v>
+        <v>5.012182237419579e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.440972222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>132859.7290854207</v>
+        <v>172738.9845574843</v>
       </c>
     </row>
     <row r="16">
@@ -60244,28 +60244,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>106.6926459237434</v>
+        <v>138.914119585263</v>
       </c>
       <c r="AB16" t="n">
-        <v>145.9815851001422</v>
+        <v>190.0684268749039</v>
       </c>
       <c r="AC16" t="n">
-        <v>132.0493075046657</v>
+        <v>171.9285629767293</v>
       </c>
       <c r="AD16" t="n">
-        <v>106692.6459237434</v>
+        <v>138914.119585263</v>
       </c>
       <c r="AE16" t="n">
-        <v>145981.5851001422</v>
+        <v>190068.4268749039</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.04932922545058e-06</v>
+        <v>5.032736154137856e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.414930555555555</v>
       </c>
       <c r="AH16" t="n">
-        <v>132049.3075046657</v>
+        <v>171928.5629767293</v>
       </c>
     </row>
     <row r="17">
@@ -60350,28 +60350,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>106.6738131858909</v>
+        <v>138.8952868474105</v>
       </c>
       <c r="AB17" t="n">
-        <v>145.9558173173707</v>
+        <v>190.0426590921324</v>
       </c>
       <c r="AC17" t="n">
-        <v>132.0259989629166</v>
+        <v>171.9052544349802</v>
       </c>
       <c r="AD17" t="n">
-        <v>106673.8131858909</v>
+        <v>138895.2868474105</v>
       </c>
       <c r="AE17" t="n">
-        <v>145955.8173173707</v>
+        <v>190042.6590921324</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.050455228635637e-06</v>
+        <v>5.034594555287791e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH17" t="n">
-        <v>132025.9989629166</v>
+        <v>171905.2544349802</v>
       </c>
     </row>
   </sheetData>
@@ -60647,28 +60647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.98256169862564</v>
+        <v>107.7977782920828</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.803913614489</v>
+        <v>147.4936759615025</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.22894361342</v>
+        <v>133.4170865364512</v>
       </c>
       <c r="AD2" t="n">
-        <v>80982.56169862565</v>
+        <v>107797.7782920828</v>
       </c>
       <c r="AE2" t="n">
-        <v>110803.913614489</v>
+        <v>147493.6759615025</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.847730784889042e-06</v>
+        <v>7.399328987080806e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.189236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>100228.94361342</v>
+        <v>133417.0865364512</v>
       </c>
     </row>
   </sheetData>
@@ -60944,28 +60944,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.45406901312499</v>
+        <v>108.9769951589635</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.2395860223071</v>
+        <v>149.1071325021444</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.3865448300331</v>
+        <v>134.8765570493551</v>
       </c>
       <c r="AD2" t="n">
-        <v>75454.06901312499</v>
+        <v>108976.9951589635</v>
       </c>
       <c r="AE2" t="n">
-        <v>103239.5860223071</v>
+        <v>149107.1325021444</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.737843853775417e-06</v>
+        <v>7.709674196157073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.840277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>93386.5448300331</v>
+        <v>134876.5570493551</v>
       </c>
     </row>
   </sheetData>
@@ -61241,28 +61241,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.4988651465788</v>
+        <v>141.0544281727562</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.8752251073927</v>
+        <v>192.9968915080614</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.621168535783</v>
+        <v>174.577539055425</v>
       </c>
       <c r="AD2" t="n">
-        <v>101498.8651465788</v>
+        <v>141054.4281727562</v>
       </c>
       <c r="AE2" t="n">
-        <v>138875.2251073926</v>
+        <v>192996.8915080614</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.071535338100818e-06</v>
+        <v>5.396566423805981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>125621.168535783</v>
+        <v>174577.539055425</v>
       </c>
     </row>
     <row r="3">
@@ -61347,28 +61347,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.92949418780353</v>
+        <v>127.7455129529369</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.9914542920658</v>
+        <v>174.7870465564131</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.203497952654</v>
+        <v>158.1056161482784</v>
       </c>
       <c r="AD3" t="n">
-        <v>97929.49418780353</v>
+        <v>127745.5129529369</v>
       </c>
       <c r="AE3" t="n">
-        <v>133991.4542920658</v>
+        <v>174787.0465564131</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.252092239798702e-06</v>
+        <v>5.713797777520998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.571180555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>121203.497952654</v>
+        <v>158105.6161482784</v>
       </c>
     </row>
     <row r="4">
@@ -61453,28 +61453,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.25366327971184</v>
+        <v>124.8990898442531</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.3302643942884</v>
+        <v>170.8924448837889</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.891726880207</v>
+        <v>154.5827097931804</v>
       </c>
       <c r="AD4" t="n">
-        <v>95253.66327971185</v>
+        <v>124899.0898442531</v>
       </c>
       <c r="AE4" t="n">
-        <v>130330.2643942884</v>
+        <v>170892.4448837889</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.392101388960942e-06</v>
+        <v>5.959788329549538e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>117891.726880207</v>
+        <v>154582.7097931804</v>
       </c>
     </row>
     <row r="5">
@@ -61559,28 +61559,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>93.59553250849167</v>
+        <v>123.2409590730329</v>
       </c>
       <c r="AB5" t="n">
-        <v>128.0615367215393</v>
+        <v>168.6237172110398</v>
       </c>
       <c r="AC5" t="n">
-        <v>115.8395233923651</v>
+        <v>152.5305063053384</v>
       </c>
       <c r="AD5" t="n">
-        <v>93595.53250849167</v>
+        <v>123240.9590730329</v>
       </c>
       <c r="AE5" t="n">
-        <v>128061.5367215392</v>
+        <v>168623.7172110398</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.467362153685571e-06</v>
+        <v>6.092018524300944e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.163194444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>115839.5233923651</v>
+        <v>152530.5063053384</v>
       </c>
     </row>
     <row r="6">
@@ -61665,28 +61665,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.63299157869572</v>
+        <v>122.2784181432369</v>
       </c>
       <c r="AB6" t="n">
-        <v>126.7445457570842</v>
+        <v>167.3067262465848</v>
       </c>
       <c r="AC6" t="n">
-        <v>114.6482241971488</v>
+        <v>151.3392071101221</v>
       </c>
       <c r="AD6" t="n">
-        <v>92632.99157869573</v>
+        <v>122278.4181432369</v>
       </c>
       <c r="AE6" t="n">
-        <v>126744.5457570842</v>
+        <v>167306.7262465848</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.518422286508234e-06</v>
+        <v>6.181729163461694e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>114648.2241971488</v>
+        <v>151339.2071101221</v>
       </c>
     </row>
     <row r="7">
@@ -61771,28 +61771,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>92.61780842687691</v>
+        <v>122.2632349914181</v>
       </c>
       <c r="AB7" t="n">
-        <v>126.7237714989324</v>
+        <v>167.2859519884329</v>
       </c>
       <c r="AC7" t="n">
-        <v>114.629432605038</v>
+        <v>151.3204155180114</v>
       </c>
       <c r="AD7" t="n">
-        <v>92617.8084268769</v>
+        <v>122263.2349914181</v>
       </c>
       <c r="AE7" t="n">
-        <v>126723.7714989324</v>
+        <v>167285.9519884329</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.518840812187109e-06</v>
+        <v>6.182464496569569e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>114629.432605038</v>
+        <v>151320.4155180114</v>
       </c>
     </row>
   </sheetData>
@@ -62068,28 +62068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.3671965463325</v>
+        <v>166.3988236359941</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.5329291249839</v>
+        <v>227.6742114966614</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.1620671173212</v>
+        <v>205.9453042942484</v>
       </c>
       <c r="AD2" t="n">
-        <v>125367.1965463325</v>
+        <v>166398.8236359941</v>
       </c>
       <c r="AE2" t="n">
-        <v>171532.9291249839</v>
+        <v>227674.2114966614</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.644634737679186e-06</v>
+        <v>4.52203067700096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>155162.0671173212</v>
+        <v>205945.3042942484</v>
       </c>
     </row>
     <row r="3">
@@ -62174,28 +62174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.1248490280153</v>
+        <v>150.8986588538126</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.3601179743761</v>
+        <v>206.4662022226826</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.6738189958214</v>
+        <v>186.7613576597434</v>
       </c>
       <c r="AD3" t="n">
-        <v>120124.8490280153</v>
+        <v>150898.6588538126</v>
       </c>
       <c r="AE3" t="n">
-        <v>164360.1179743761</v>
+        <v>206466.2022226826</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.840806870208781e-06</v>
+        <v>4.857463161734185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.248263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>148673.8189958214</v>
+        <v>186761.3576597434</v>
       </c>
     </row>
     <row r="4">
@@ -62280,28 +62280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.2055250226881</v>
+        <v>147.1518112577781</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.3150847930612</v>
+        <v>201.3396000425411</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.4464170514532</v>
+        <v>182.1240311964416</v>
       </c>
       <c r="AD4" t="n">
-        <v>106205.5250226881</v>
+        <v>147151.8112577781</v>
       </c>
       <c r="AE4" t="n">
-        <v>145315.0847930612</v>
+        <v>201339.6000425411</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.987040396017516e-06</v>
+        <v>5.107506194252699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>131446.4170514532</v>
+        <v>182124.0311964416</v>
       </c>
     </row>
     <row r="5">
@@ -62386,28 +62386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.7406428216991</v>
+        <v>144.6869290567892</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.9425242227417</v>
+        <v>197.9670394722216</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.3957289285455</v>
+        <v>179.0733430735338</v>
       </c>
       <c r="AD5" t="n">
-        <v>103740.6428216991</v>
+        <v>144686.9290567891</v>
       </c>
       <c r="AE5" t="n">
-        <v>141942.5242227417</v>
+        <v>197967.0394722216</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.096549473748392e-06</v>
+        <v>5.294754513218543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>128395.7289285455</v>
+        <v>179073.3430735338</v>
       </c>
     </row>
     <row r="6">
@@ -62492,28 +62492,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.3110472365965</v>
+        <v>131.9995162078222</v>
       </c>
       <c r="AB6" t="n">
-        <v>138.6182443570137</v>
+        <v>180.6075614831226</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.3887136675454</v>
+        <v>163.3706292995286</v>
       </c>
       <c r="AD6" t="n">
-        <v>101311.0472365965</v>
+        <v>131999.5162078222</v>
       </c>
       <c r="AE6" t="n">
-        <v>138618.2443570137</v>
+        <v>180607.5614831226</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.20147985737137e-06</v>
+        <v>5.474173775520522e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.432291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>125388.7136675454</v>
+        <v>163370.6292995285</v>
       </c>
     </row>
     <row r="7">
@@ -62598,28 +62598,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.5306596415924</v>
+        <v>131.2191286128181</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.5504836212587</v>
+        <v>179.5398007473676</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.4228585177989</v>
+        <v>162.4047741497821</v>
       </c>
       <c r="AD7" t="n">
-        <v>100530.6596415924</v>
+        <v>131219.1286128181</v>
       </c>
       <c r="AE7" t="n">
-        <v>137550.4836212587</v>
+        <v>179539.8007473676</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.230778754901185e-06</v>
+        <v>5.524271625157179e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.371527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>124422.8585177989</v>
+        <v>162404.7741497821</v>
       </c>
     </row>
     <row r="8">
@@ -62704,28 +62704,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>99.18207933018581</v>
+        <v>129.8705483014115</v>
       </c>
       <c r="AB8" t="n">
-        <v>135.7052965440288</v>
+        <v>177.6946136701376</v>
       </c>
       <c r="AC8" t="n">
-        <v>122.7537735054829</v>
+        <v>160.735689137466</v>
       </c>
       <c r="AD8" t="n">
-        <v>99182.07933018582</v>
+        <v>129870.5483014115</v>
       </c>
       <c r="AE8" t="n">
-        <v>135705.2965440288</v>
+        <v>177694.6136701377</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.281429075732082e-06</v>
+        <v>5.610878029184926e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>122753.7735054829</v>
+        <v>160735.689137466</v>
       </c>
     </row>
     <row r="9">
@@ -62810,28 +62810,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>98.30957240631196</v>
+        <v>128.9980413775377</v>
       </c>
       <c r="AB9" t="n">
-        <v>134.5114940784963</v>
+        <v>176.5008112046052</v>
       </c>
       <c r="AC9" t="n">
-        <v>121.6739058717482</v>
+        <v>159.6558215037313</v>
       </c>
       <c r="AD9" t="n">
-        <v>98309.57240631196</v>
+        <v>128998.0413775377</v>
       </c>
       <c r="AE9" t="n">
-        <v>134511.4940784963</v>
+        <v>176500.8112046052</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.304654679522925e-06</v>
+        <v>5.650591223350342e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.232638888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>121673.9058717482</v>
+        <v>159655.8215037313</v>
       </c>
     </row>
     <row r="10">
@@ -62916,28 +62916,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>97.94444455244711</v>
+        <v>128.6329135236728</v>
       </c>
       <c r="AB10" t="n">
-        <v>134.0119100405346</v>
+        <v>176.0012271666435</v>
       </c>
       <c r="AC10" t="n">
-        <v>121.2220014331988</v>
+        <v>159.203917065182</v>
       </c>
       <c r="AD10" t="n">
-        <v>97944.44455244711</v>
+        <v>128632.9135236728</v>
       </c>
       <c r="AE10" t="n">
-        <v>134011.9100405347</v>
+        <v>176001.2271666435</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.329256263926503e-06</v>
+        <v>5.692657191020962e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.189236111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>121222.0014331988</v>
+        <v>159203.917065182</v>
       </c>
     </row>
   </sheetData>
@@ -63213,28 +63213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.7006954893051</v>
+        <v>203.4252237063304</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.1953400138363</v>
+        <v>278.3353655623552</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.5163461599517</v>
+        <v>251.7714289193048</v>
       </c>
       <c r="AD2" t="n">
-        <v>150700.6954893051</v>
+        <v>203425.2237063304</v>
       </c>
       <c r="AE2" t="n">
-        <v>206195.3400138363</v>
+        <v>278335.3655623552</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.308171314547464e-06</v>
+        <v>3.862200086975279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>186516.3461599517</v>
+        <v>251771.4289193047</v>
       </c>
     </row>
     <row r="3">
@@ -63319,28 +63319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.5277177434696</v>
+        <v>185.1669051059232</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.3302701268021</v>
+        <v>253.3535285531233</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.0243636445834</v>
+        <v>229.1738233719976</v>
       </c>
       <c r="AD3" t="n">
-        <v>132527.7177434696</v>
+        <v>185166.9051059232</v>
       </c>
       <c r="AE3" t="n">
-        <v>181330.2701268021</v>
+        <v>253353.5285531234</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.514896902158495e-06</v>
+        <v>4.20810837264682e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.934027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>164024.3636445834</v>
+        <v>229173.8233719976</v>
       </c>
     </row>
     <row r="4">
@@ -63425,28 +63425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.8582666058199</v>
+        <v>169.9355696625052</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.9413210786277</v>
+        <v>232.513343440354</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.2451669266185</v>
+        <v>210.3225962770009</v>
       </c>
       <c r="AD4" t="n">
-        <v>127858.2666058199</v>
+        <v>169935.5696625052</v>
       </c>
       <c r="AE4" t="n">
-        <v>174941.3210786277</v>
+        <v>232513.343440354</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.663727369137275e-06</v>
+        <v>4.457142332512451e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.491319444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>158245.1669266185</v>
+        <v>210322.5962770008</v>
       </c>
     </row>
     <row r="5">
@@ -63531,28 +63531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.5255658652328</v>
+        <v>156.211576816742</v>
       </c>
       <c r="AB5" t="n">
-        <v>170.3813728969788</v>
+        <v>213.7355709689571</v>
       </c>
       <c r="AC5" t="n">
-        <v>154.1204137994972</v>
+        <v>193.3369480554989</v>
       </c>
       <c r="AD5" t="n">
-        <v>124525.5658652328</v>
+        <v>156211.576816742</v>
       </c>
       <c r="AE5" t="n">
-        <v>170381.3728969788</v>
+        <v>213735.5709689571</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.783679253306639e-06</v>
+        <v>4.657854547655198e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.170138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>154120.4137994972</v>
+        <v>193336.9480554989</v>
       </c>
     </row>
     <row r="6">
@@ -63637,28 +63637,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>111.4805854246099</v>
+        <v>153.6431398273158</v>
       </c>
       <c r="AB6" t="n">
-        <v>152.5326551542074</v>
+        <v>210.2213221685831</v>
       </c>
       <c r="AC6" t="n">
-        <v>137.9751526272576</v>
+        <v>190.1580942283522</v>
       </c>
       <c r="AD6" t="n">
-        <v>111480.5854246099</v>
+        <v>153643.1398273158</v>
       </c>
       <c r="AE6" t="n">
-        <v>152532.6551542075</v>
+        <v>210221.3221685831</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.875258389715797e-06</v>
+        <v>4.811091418062244e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>137975.1526272576</v>
+        <v>190158.0942283522</v>
       </c>
     </row>
     <row r="7">
@@ -63743,28 +63743,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.9154917129391</v>
+        <v>151.078046115645</v>
       </c>
       <c r="AB7" t="n">
-        <v>149.0229807739533</v>
+        <v>206.7116477883289</v>
       </c>
       <c r="AC7" t="n">
-        <v>134.8004366439949</v>
+        <v>186.9833782450895</v>
       </c>
       <c r="AD7" t="n">
-        <v>108915.4917129391</v>
+        <v>151078.046115645</v>
       </c>
       <c r="AE7" t="n">
-        <v>149022.9807739533</v>
+        <v>206711.6477883289</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.966147751057851e-06</v>
+        <v>4.963174106668583e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.727430555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>134800.4366439949</v>
+        <v>186983.3782450895</v>
       </c>
     </row>
     <row r="8">
@@ -63849,28 +63849,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>108.4850836025523</v>
+        <v>150.6476380052582</v>
       </c>
       <c r="AB8" t="n">
-        <v>148.4340774090567</v>
+        <v>206.1227444234323</v>
       </c>
       <c r="AC8" t="n">
-        <v>134.2677373897128</v>
+        <v>186.4506789908074</v>
       </c>
       <c r="AD8" t="n">
-        <v>108485.0836025523</v>
+        <v>150647.6380052582</v>
       </c>
       <c r="AE8" t="n">
-        <v>148434.0774090567</v>
+        <v>206122.7444234323</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.984863647878603e-06</v>
+        <v>4.994490906194402e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.684027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>134267.7373897128</v>
+        <v>186450.6789908074</v>
       </c>
     </row>
     <row r="9">
@@ -63955,28 +63955,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>107.1012438579565</v>
+        <v>138.8725061554863</v>
       </c>
       <c r="AB9" t="n">
-        <v>146.5406468198009</v>
+        <v>190.0114895444285</v>
       </c>
       <c r="AC9" t="n">
-        <v>132.5550131584484</v>
+        <v>171.8770596651623</v>
       </c>
       <c r="AD9" t="n">
-        <v>107101.2438579565</v>
+        <v>138872.5061554863</v>
       </c>
       <c r="AE9" t="n">
-        <v>146540.6468198009</v>
+        <v>190011.4895444285</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.037217575471787e-06</v>
+        <v>5.082093304867976e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.571180555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>132555.0131584484</v>
+        <v>171877.0596651623</v>
       </c>
     </row>
     <row r="10">
@@ -64061,28 +64061,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>106.1907262357375</v>
+        <v>137.9619885332673</v>
       </c>
       <c r="AB10" t="n">
-        <v>145.2948364398791</v>
+        <v>188.7656791645067</v>
       </c>
       <c r="AC10" t="n">
-        <v>131.4281011726801</v>
+        <v>170.750147679394</v>
       </c>
       <c r="AD10" t="n">
-        <v>106190.7262357375</v>
+        <v>137961.9885332673</v>
       </c>
       <c r="AE10" t="n">
-        <v>145294.8364398791</v>
+        <v>188765.6791645066</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.060348032722004e-06</v>
+        <v>5.120796867918312e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.519097222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>131428.1011726801</v>
+        <v>170750.147679394</v>
       </c>
     </row>
     <row r="11">
@@ -64167,28 +64167,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>104.6841071770649</v>
+        <v>136.2847772740025</v>
       </c>
       <c r="AB11" t="n">
-        <v>143.2334137764624</v>
+        <v>186.4708447262431</v>
       </c>
       <c r="AC11" t="n">
-        <v>129.5634177950343</v>
+        <v>168.6743290190972</v>
       </c>
       <c r="AD11" t="n">
-        <v>104684.1071770649</v>
+        <v>136284.7772740025</v>
       </c>
       <c r="AE11" t="n">
-        <v>143233.4137764624</v>
+        <v>186470.8447262431</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.11727746826031e-06</v>
+        <v>5.216055339203235e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH11" t="n">
-        <v>129563.4177950343</v>
+        <v>168674.3290190972</v>
       </c>
     </row>
     <row r="12">
@@ -64273,28 +64273,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>103.7398475760164</v>
+        <v>135.340517672954</v>
       </c>
       <c r="AB12" t="n">
-        <v>141.9414361325148</v>
+        <v>185.1788670822955</v>
       </c>
       <c r="AC12" t="n">
-        <v>128.3947446841227</v>
+        <v>167.5056559081856</v>
       </c>
       <c r="AD12" t="n">
-        <v>103739.8475760164</v>
+        <v>135340.517672954</v>
       </c>
       <c r="AE12" t="n">
-        <v>141941.4361325148</v>
+        <v>185178.8670822955</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.144638545922098e-06</v>
+        <v>5.261837883964566e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.345486111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>128394.7446841227</v>
+        <v>167505.6559081856</v>
       </c>
     </row>
     <row r="13">
@@ -64379,28 +64379,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>102.9098175760982</v>
+        <v>134.5104876730358</v>
       </c>
       <c r="AB13" t="n">
-        <v>140.8057524682883</v>
+        <v>184.0431834180689</v>
       </c>
       <c r="AC13" t="n">
-        <v>127.3674490748675</v>
+        <v>166.4783602989304</v>
       </c>
       <c r="AD13" t="n">
-        <v>102909.8175760982</v>
+        <v>134510.4876730358</v>
       </c>
       <c r="AE13" t="n">
-        <v>140805.7524682883</v>
+        <v>184043.1834180689</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.167608055656656e-06</v>
+        <v>5.300272137928071e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>127367.4490748675</v>
+        <v>166478.3602989304</v>
       </c>
     </row>
     <row r="14">
@@ -64485,28 +64485,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>103.1573092536563</v>
+        <v>134.7579793505939</v>
       </c>
       <c r="AB14" t="n">
-        <v>141.1443815000853</v>
+        <v>184.381812449866</v>
       </c>
       <c r="AC14" t="n">
-        <v>127.6737598271388</v>
+        <v>166.7846710512017</v>
       </c>
       <c r="AD14" t="n">
-        <v>103157.3092536563</v>
+        <v>134757.9793505939</v>
       </c>
       <c r="AE14" t="n">
-        <v>141144.3815000853</v>
+        <v>184381.812449866</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.160112499927461e-06</v>
+        <v>5.287730029027068e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.319444444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>127673.7598271388</v>
+        <v>166784.6710512016</v>
       </c>
     </row>
   </sheetData>
